--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="921">
   <si>
     <t>League</t>
   </si>
@@ -2404,51 +2404,6 @@
     <t>Portland Timbers</t>
   </si>
   <si>
-    <t>33212785</t>
-  </si>
-  <si>
-    <t>33218363</t>
-  </si>
-  <si>
-    <t>33225584</t>
-  </si>
-  <si>
-    <t>33215652</t>
-  </si>
-  <si>
-    <t>33215585</t>
-  </si>
-  <si>
-    <t>33218357</t>
-  </si>
-  <si>
-    <t>33215357</t>
-  </si>
-  <si>
-    <t>33210919</t>
-  </si>
-  <si>
-    <t>33215619</t>
-  </si>
-  <si>
-    <t>33223456</t>
-  </si>
-  <si>
-    <t>33223885</t>
-  </si>
-  <si>
-    <t>33223873</t>
-  </si>
-  <si>
-    <t>33215604</t>
-  </si>
-  <si>
-    <t>33223847</t>
-  </si>
-  <si>
-    <t>33210551</t>
-  </si>
-  <si>
     <t>33218359</t>
   </si>
   <si>
@@ -2524,51 +2479,6 @@
     <t>33210866</t>
   </si>
   <si>
-    <t>1.227947375</t>
-  </si>
-  <si>
-    <t>1.228045748</t>
-  </si>
-  <si>
-    <t>1.228151481</t>
-  </si>
-  <si>
-    <t>1.228001238</t>
-  </si>
-  <si>
-    <t>1.227995527</t>
-  </si>
-  <si>
-    <t>1.228046022</t>
-  </si>
-  <si>
-    <t>1.227992633</t>
-  </si>
-  <si>
-    <t>1.227915591</t>
-  </si>
-  <si>
-    <t>1.228001742</t>
-  </si>
-  <si>
-    <t>1.228119732</t>
-  </si>
-  <si>
-    <t>1.228127947</t>
-  </si>
-  <si>
-    <t>1.228128049</t>
-  </si>
-  <si>
-    <t>1.228002135</t>
-  </si>
-  <si>
-    <t>1.228128148</t>
-  </si>
-  <si>
-    <t>1.227914995</t>
-  </si>
-  <si>
     <t>1.228045838</t>
   </si>
   <si>
@@ -2644,51 +2554,6 @@
     <t>1.227920940</t>
   </si>
   <si>
-    <t>1.227947420</t>
-  </si>
-  <si>
-    <t>1.228045793</t>
-  </si>
-  <si>
-    <t>1.228151526</t>
-  </si>
-  <si>
-    <t>1.228001248</t>
-  </si>
-  <si>
-    <t>1.227995537</t>
-  </si>
-  <si>
-    <t>1.228046067</t>
-  </si>
-  <si>
-    <t>1.227992678</t>
-  </si>
-  <si>
-    <t>1.227915636</t>
-  </si>
-  <si>
-    <t>1.228001752</t>
-  </si>
-  <si>
-    <t>1.228119777</t>
-  </si>
-  <si>
-    <t>1.228127992</t>
-  </si>
-  <si>
-    <t>1.228128097</t>
-  </si>
-  <si>
-    <t>1.228002180</t>
-  </si>
-  <si>
-    <t>1.228128195</t>
-  </si>
-  <si>
-    <t>1.227915005</t>
-  </si>
-  <si>
     <t>1.228045883</t>
   </si>
   <si>
@@ -2764,48 +2629,6 @@
     <t>1.227920950</t>
   </si>
   <si>
-    <t>1.227947459</t>
-  </si>
-  <si>
-    <t>1.228045832</t>
-  </si>
-  <si>
-    <t>1.228151565</t>
-  </si>
-  <si>
-    <t>1.227995526</t>
-  </si>
-  <si>
-    <t>1.228046106</t>
-  </si>
-  <si>
-    <t>1.227992717</t>
-  </si>
-  <si>
-    <t>1.227915675</t>
-  </si>
-  <si>
-    <t>1.228001741</t>
-  </si>
-  <si>
-    <t>1.228119816</t>
-  </si>
-  <si>
-    <t>1.228128031</t>
-  </si>
-  <si>
-    <t>1.228128138</t>
-  </si>
-  <si>
-    <t>1.228002219</t>
-  </si>
-  <si>
-    <t>1.228128236</t>
-  </si>
-  <si>
-    <t>1.227914994</t>
-  </si>
-  <si>
     <t>1.228045922</t>
   </si>
   <si>
@@ -2879,51 +2702,6 @@
   </si>
   <si>
     <t>1.227920939</t>
-  </si>
-  <si>
-    <t>1.227947384</t>
-  </si>
-  <si>
-    <t>1.228045757</t>
-  </si>
-  <si>
-    <t>1.228151490</t>
-  </si>
-  <si>
-    <t>1.228001247</t>
-  </si>
-  <si>
-    <t>1.227995536</t>
-  </si>
-  <si>
-    <t>1.228046031</t>
-  </si>
-  <si>
-    <t>1.227992642</t>
-  </si>
-  <si>
-    <t>1.227915600</t>
-  </si>
-  <si>
-    <t>1.228001751</t>
-  </si>
-  <si>
-    <t>1.228119741</t>
-  </si>
-  <si>
-    <t>1.228127956</t>
-  </si>
-  <si>
-    <t>1.228128060</t>
-  </si>
-  <si>
-    <t>1.228002144</t>
-  </si>
-  <si>
-    <t>1.228128158</t>
-  </si>
-  <si>
-    <t>1.227915004</t>
   </si>
   <si>
     <t>1.228045847</t>
@@ -55148,8 +54926,8 @@
       <c r="BE263">
         <v>1000</v>
       </c>
-      <c r="BF263" t="s">
-        <v>796</v>
+      <c r="BF263">
+        <v>33212785</v>
       </c>
       <c r="BG263">
         <v>50085</v>
@@ -55160,17 +54938,17 @@
       <c r="BI263">
         <v>58805</v>
       </c>
-      <c r="BJ263" t="s">
-        <v>836</v>
-      </c>
-      <c r="BK263" t="s">
-        <v>876</v>
-      </c>
-      <c r="BL263" t="s">
-        <v>916</v>
-      </c>
-      <c r="BM263" t="s">
-        <v>955</v>
+      <c r="BJ263">
+        <v>1.227947375</v>
+      </c>
+      <c r="BK263">
+        <v>1.22794742</v>
+      </c>
+      <c r="BL263">
+        <v>1.227947459</v>
+      </c>
+      <c r="BM263">
+        <v>1.227947384</v>
       </c>
     </row>
     <row r="264" spans="1:65">
@@ -55345,8 +55123,8 @@
       <c r="BE264">
         <v>1000</v>
       </c>
-      <c r="BF264" t="s">
-        <v>797</v>
+      <c r="BF264">
+        <v>33218363</v>
       </c>
       <c r="BG264">
         <v>11135997</v>
@@ -55357,17 +55135,17 @@
       <c r="BI264">
         <v>58805</v>
       </c>
-      <c r="BJ264" t="s">
-        <v>837</v>
-      </c>
-      <c r="BK264" t="s">
-        <v>877</v>
-      </c>
-      <c r="BL264" t="s">
-        <v>917</v>
-      </c>
-      <c r="BM264" t="s">
-        <v>956</v>
+      <c r="BJ264">
+        <v>1.228045748</v>
+      </c>
+      <c r="BK264">
+        <v>1.228045793</v>
+      </c>
+      <c r="BL264">
+        <v>1.228045832</v>
+      </c>
+      <c r="BM264">
+        <v>1.228045757</v>
       </c>
     </row>
     <row r="265" spans="1:65">
@@ -55542,8 +55320,8 @@
       <c r="BE265">
         <v>1000</v>
       </c>
-      <c r="BF265" t="s">
-        <v>798</v>
+      <c r="BF265">
+        <v>33225584</v>
       </c>
       <c r="BG265">
         <v>7658015</v>
@@ -55554,17 +55332,17 @@
       <c r="BI265">
         <v>58805</v>
       </c>
-      <c r="BJ265" t="s">
-        <v>838</v>
-      </c>
-      <c r="BK265" t="s">
-        <v>878</v>
-      </c>
-      <c r="BL265" t="s">
-        <v>918</v>
-      </c>
-      <c r="BM265" t="s">
-        <v>957</v>
+      <c r="BJ265">
+        <v>1.228151481</v>
+      </c>
+      <c r="BK265">
+        <v>1.228151526</v>
+      </c>
+      <c r="BL265">
+        <v>1.228151565</v>
+      </c>
+      <c r="BM265">
+        <v>1.22815149</v>
       </c>
     </row>
     <row r="266" spans="1:65">
@@ -55739,8 +55517,8 @@
       <c r="BE266">
         <v>1000</v>
       </c>
-      <c r="BF266" t="s">
-        <v>799</v>
+      <c r="BF266">
+        <v>33215652</v>
       </c>
       <c r="BG266">
         <v>189951</v>
@@ -55751,17 +55529,17 @@
       <c r="BI266">
         <v>58805</v>
       </c>
-      <c r="BJ266" t="s">
-        <v>839</v>
-      </c>
-      <c r="BK266" t="s">
-        <v>879</v>
+      <c r="BJ266">
+        <v>1.228001238</v>
+      </c>
+      <c r="BK266">
+        <v>1.228001248</v>
       </c>
       <c r="BL266">
         <v>0</v>
       </c>
-      <c r="BM266" t="s">
-        <v>958</v>
+      <c r="BM266">
+        <v>1.228001247</v>
       </c>
     </row>
     <row r="267" spans="1:65">
@@ -55936,8 +55714,8 @@
       <c r="BE267">
         <v>1000</v>
       </c>
-      <c r="BF267" t="s">
-        <v>800</v>
+      <c r="BF267">
+        <v>33215585</v>
       </c>
       <c r="BG267">
         <v>6368159</v>
@@ -55948,17 +55726,17 @@
       <c r="BI267">
         <v>58805</v>
       </c>
-      <c r="BJ267" t="s">
-        <v>840</v>
-      </c>
-      <c r="BK267" t="s">
-        <v>880</v>
-      </c>
-      <c r="BL267" t="s">
-        <v>919</v>
-      </c>
-      <c r="BM267" t="s">
-        <v>959</v>
+      <c r="BJ267">
+        <v>1.227995527</v>
+      </c>
+      <c r="BK267">
+        <v>1.227995537</v>
+      </c>
+      <c r="BL267">
+        <v>1.227995526</v>
+      </c>
+      <c r="BM267">
+        <v>1.227995536</v>
       </c>
     </row>
     <row r="268" spans="1:65">
@@ -56133,8 +55911,8 @@
       <c r="BE268">
         <v>1000</v>
       </c>
-      <c r="BF268" t="s">
-        <v>801</v>
+      <c r="BF268">
+        <v>33218357</v>
       </c>
       <c r="BG268">
         <v>5330507</v>
@@ -56145,17 +55923,17 @@
       <c r="BI268">
         <v>58805</v>
       </c>
-      <c r="BJ268" t="s">
-        <v>841</v>
-      </c>
-      <c r="BK268" t="s">
-        <v>881</v>
-      </c>
-      <c r="BL268" t="s">
-        <v>920</v>
-      </c>
-      <c r="BM268" t="s">
-        <v>960</v>
+      <c r="BJ268">
+        <v>1.228046022</v>
+      </c>
+      <c r="BK268">
+        <v>1.228046067</v>
+      </c>
+      <c r="BL268">
+        <v>1.228046106</v>
+      </c>
+      <c r="BM268">
+        <v>1.228046031</v>
       </c>
     </row>
     <row r="269" spans="1:65">
@@ -56330,8 +56108,8 @@
       <c r="BE269">
         <v>1000</v>
       </c>
-      <c r="BF269" t="s">
-        <v>802</v>
+      <c r="BF269">
+        <v>33215357</v>
       </c>
       <c r="BG269">
         <v>7028659</v>
@@ -56342,17 +56120,17 @@
       <c r="BI269">
         <v>58805</v>
       </c>
-      <c r="BJ269" t="s">
-        <v>842</v>
-      </c>
-      <c r="BK269" t="s">
-        <v>882</v>
-      </c>
-      <c r="BL269" t="s">
-        <v>921</v>
-      </c>
-      <c r="BM269" t="s">
-        <v>961</v>
+      <c r="BJ269">
+        <v>1.227992633</v>
+      </c>
+      <c r="BK269">
+        <v>1.227992678</v>
+      </c>
+      <c r="BL269">
+        <v>1.227992717</v>
+      </c>
+      <c r="BM269">
+        <v>1.227992642</v>
       </c>
     </row>
     <row r="270" spans="1:65">
@@ -56527,8 +56305,8 @@
       <c r="BE270">
         <v>1000</v>
       </c>
-      <c r="BF270" t="s">
-        <v>803</v>
+      <c r="BF270">
+        <v>33210919</v>
       </c>
       <c r="BG270">
         <v>44232344</v>
@@ -56539,17 +56317,17 @@
       <c r="BI270">
         <v>58805</v>
       </c>
-      <c r="BJ270" t="s">
-        <v>843</v>
-      </c>
-      <c r="BK270" t="s">
-        <v>883</v>
-      </c>
-      <c r="BL270" t="s">
-        <v>922</v>
-      </c>
-      <c r="BM270" t="s">
-        <v>962</v>
+      <c r="BJ270">
+        <v>1.227915591</v>
+      </c>
+      <c r="BK270">
+        <v>1.227915636</v>
+      </c>
+      <c r="BL270">
+        <v>1.227915675</v>
+      </c>
+      <c r="BM270">
+        <v>1.2279156</v>
       </c>
     </row>
     <row r="271" spans="1:65">
@@ -56724,8 +56502,8 @@
       <c r="BE271">
         <v>1000</v>
       </c>
-      <c r="BF271" t="s">
-        <v>804</v>
+      <c r="BF271">
+        <v>33215619</v>
       </c>
       <c r="BG271">
         <v>4516149</v>
@@ -56736,17 +56514,17 @@
       <c r="BI271">
         <v>58805</v>
       </c>
-      <c r="BJ271" t="s">
-        <v>844</v>
-      </c>
-      <c r="BK271" t="s">
-        <v>884</v>
-      </c>
-      <c r="BL271" t="s">
-        <v>923</v>
-      </c>
-      <c r="BM271" t="s">
-        <v>963</v>
+      <c r="BJ271">
+        <v>1.228001742</v>
+      </c>
+      <c r="BK271">
+        <v>1.228001752</v>
+      </c>
+      <c r="BL271">
+        <v>1.228001741</v>
+      </c>
+      <c r="BM271">
+        <v>1.228001751</v>
       </c>
     </row>
     <row r="272" spans="1:65">
@@ -56921,8 +56699,8 @@
       <c r="BE272">
         <v>1000</v>
       </c>
-      <c r="BF272" t="s">
-        <v>805</v>
+      <c r="BF272">
+        <v>33223456</v>
       </c>
       <c r="BG272">
         <v>8360996</v>
@@ -56933,17 +56711,17 @@
       <c r="BI272">
         <v>58805</v>
       </c>
-      <c r="BJ272" t="s">
-        <v>845</v>
-      </c>
-      <c r="BK272" t="s">
-        <v>885</v>
-      </c>
-      <c r="BL272" t="s">
-        <v>924</v>
-      </c>
-      <c r="BM272" t="s">
-        <v>964</v>
+      <c r="BJ272">
+        <v>1.228119732</v>
+      </c>
+      <c r="BK272">
+        <v>1.228119777</v>
+      </c>
+      <c r="BL272">
+        <v>1.228119816</v>
+      </c>
+      <c r="BM272">
+        <v>1.228119741</v>
       </c>
     </row>
     <row r="273" spans="1:65">
@@ -57118,8 +56896,8 @@
       <c r="BE273">
         <v>1000</v>
       </c>
-      <c r="BF273" t="s">
-        <v>806</v>
+      <c r="BF273">
+        <v>33223885</v>
       </c>
       <c r="BG273">
         <v>16881497</v>
@@ -57130,17 +56908,17 @@
       <c r="BI273">
         <v>58805</v>
       </c>
-      <c r="BJ273" t="s">
-        <v>846</v>
-      </c>
-      <c r="BK273" t="s">
-        <v>886</v>
-      </c>
-      <c r="BL273" t="s">
-        <v>925</v>
-      </c>
-      <c r="BM273" t="s">
-        <v>965</v>
+      <c r="BJ273">
+        <v>1.228127947</v>
+      </c>
+      <c r="BK273">
+        <v>1.228127992</v>
+      </c>
+      <c r="BL273">
+        <v>1.228128031</v>
+      </c>
+      <c r="BM273">
+        <v>1.228127956</v>
       </c>
     </row>
     <row r="274" spans="1:65">
@@ -57315,8 +57093,8 @@
       <c r="BE274">
         <v>1000</v>
       </c>
-      <c r="BF274" t="s">
-        <v>807</v>
+      <c r="BF274">
+        <v>33223873</v>
       </c>
       <c r="BG274">
         <v>6987865</v>
@@ -57327,17 +57105,17 @@
       <c r="BI274">
         <v>58805</v>
       </c>
-      <c r="BJ274" t="s">
-        <v>847</v>
-      </c>
-      <c r="BK274" t="s">
-        <v>887</v>
-      </c>
-      <c r="BL274" t="s">
-        <v>926</v>
-      </c>
-      <c r="BM274" t="s">
-        <v>966</v>
+      <c r="BJ274">
+        <v>1.228128049</v>
+      </c>
+      <c r="BK274">
+        <v>1.228128097</v>
+      </c>
+      <c r="BL274">
+        <v>1.228128138</v>
+      </c>
+      <c r="BM274">
+        <v>1.22812806</v>
       </c>
     </row>
     <row r="275" spans="1:65">
@@ -57512,8 +57290,8 @@
       <c r="BE275">
         <v>1000</v>
       </c>
-      <c r="BF275" t="s">
-        <v>808</v>
+      <c r="BF275">
+        <v>33215604</v>
       </c>
       <c r="BG275">
         <v>3303740</v>
@@ -57524,17 +57302,17 @@
       <c r="BI275">
         <v>58805</v>
       </c>
-      <c r="BJ275" t="s">
-        <v>848</v>
-      </c>
-      <c r="BK275" t="s">
-        <v>888</v>
-      </c>
-      <c r="BL275" t="s">
-        <v>927</v>
-      </c>
-      <c r="BM275" t="s">
-        <v>967</v>
+      <c r="BJ275">
+        <v>1.228002135</v>
+      </c>
+      <c r="BK275">
+        <v>1.22800218</v>
+      </c>
+      <c r="BL275">
+        <v>1.228002219</v>
+      </c>
+      <c r="BM275">
+        <v>1.228002144</v>
       </c>
     </row>
     <row r="276" spans="1:65">
@@ -57709,8 +57487,8 @@
       <c r="BE276">
         <v>1000</v>
       </c>
-      <c r="BF276" t="s">
-        <v>809</v>
+      <c r="BF276">
+        <v>33223847</v>
       </c>
       <c r="BG276">
         <v>1040276</v>
@@ -57721,17 +57499,17 @@
       <c r="BI276">
         <v>58805</v>
       </c>
-      <c r="BJ276" t="s">
-        <v>849</v>
-      </c>
-      <c r="BK276" t="s">
-        <v>889</v>
-      </c>
-      <c r="BL276" t="s">
-        <v>928</v>
-      </c>
-      <c r="BM276" t="s">
-        <v>968</v>
+      <c r="BJ276">
+        <v>1.228128148</v>
+      </c>
+      <c r="BK276">
+        <v>1.228128195</v>
+      </c>
+      <c r="BL276">
+        <v>1.228128236</v>
+      </c>
+      <c r="BM276">
+        <v>1.228128158</v>
       </c>
     </row>
     <row r="277" spans="1:65">
@@ -57906,8 +57684,8 @@
       <c r="BE277">
         <v>1000</v>
       </c>
-      <c r="BF277" t="s">
-        <v>810</v>
+      <c r="BF277">
+        <v>33210551</v>
       </c>
       <c r="BG277">
         <v>5327095</v>
@@ -57918,17 +57696,17 @@
       <c r="BI277">
         <v>58805</v>
       </c>
-      <c r="BJ277" t="s">
-        <v>850</v>
-      </c>
-      <c r="BK277" t="s">
-        <v>890</v>
-      </c>
-      <c r="BL277" t="s">
-        <v>929</v>
-      </c>
-      <c r="BM277" t="s">
-        <v>969</v>
+      <c r="BJ277">
+        <v>1.227914995</v>
+      </c>
+      <c r="BK277">
+        <v>1.227915005</v>
+      </c>
+      <c r="BL277">
+        <v>1.227914994</v>
+      </c>
+      <c r="BM277">
+        <v>1.227915004</v>
       </c>
     </row>
     <row r="278" spans="1:65">
@@ -57948,79 +57726,79 @@
         <v>771</v>
       </c>
       <c r="F278">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="G278">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="H278">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I278">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J278">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K278">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L278">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="M278">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="N278">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O278">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="P278">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q278">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="R278">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="S278">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="T278">
         <v>7.8</v>
       </c>
       <c r="U278">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="V278">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W278">
         <v>980</v>
       </c>
       <c r="X278">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="Y278">
         <v>980</v>
       </c>
       <c r="Z278">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AA278">
         <v>1000</v>
       </c>
       <c r="AB278">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC278">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD278">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AE278">
         <v>980</v>
@@ -58032,7 +57810,7 @@
         <v>980</v>
       </c>
       <c r="AH278">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AI278">
         <v>980</v>
@@ -58041,10 +57819,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AK278">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AL278">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AM278">
         <v>980</v>
@@ -58056,55 +57834,55 @@
         <v>980</v>
       </c>
       <c r="AP278">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AQ278">
         <v>1000</v>
       </c>
       <c r="AR278">
+        <v>4</v>
+      </c>
+      <c r="AS278">
+        <v>980</v>
+      </c>
+      <c r="AT278">
+        <v>4.1</v>
+      </c>
+      <c r="AU278">
+        <v>980</v>
+      </c>
+      <c r="AV278">
+        <v>4.4</v>
+      </c>
+      <c r="AW278">
+        <v>1000</v>
+      </c>
+      <c r="AX278">
+        <v>4.6</v>
+      </c>
+      <c r="AY278">
+        <v>1000</v>
+      </c>
+      <c r="AZ278">
         <v>3.8</v>
       </c>
-      <c r="AS278">
-        <v>980</v>
-      </c>
-      <c r="AT278">
-        <v>3.8</v>
-      </c>
-      <c r="AU278">
-        <v>980</v>
-      </c>
-      <c r="AV278">
-        <v>4.1</v>
-      </c>
-      <c r="AW278">
-        <v>1000</v>
-      </c>
-      <c r="AX278">
-        <v>2.66</v>
-      </c>
-      <c r="AY278">
-        <v>1000</v>
-      </c>
-      <c r="AZ278">
-        <v>1.93</v>
-      </c>
       <c r="BA278">
         <v>980</v>
       </c>
       <c r="BB278">
-        <v>1.21</v>
+        <v>2.94</v>
       </c>
       <c r="BC278">
         <v>1000</v>
       </c>
       <c r="BD278">
-        <v>1.17</v>
+        <v>2.88</v>
       </c>
       <c r="BE278">
         <v>1000</v>
       </c>
       <c r="BF278" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="BG278">
         <v>5231799</v>
@@ -58116,16 +57894,16 @@
         <v>58805</v>
       </c>
       <c r="BJ278" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="BK278" t="s">
-        <v>891</v>
+        <v>846</v>
       </c>
       <c r="BL278" t="s">
-        <v>930</v>
+        <v>871</v>
       </c>
       <c r="BM278" t="s">
-        <v>970</v>
+        <v>896</v>
       </c>
     </row>
     <row r="279" spans="1:65">
@@ -58145,34 +57923,34 @@
         <v>772</v>
       </c>
       <c r="F279">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="G279">
         <v>490</v>
       </c>
       <c r="H279">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="I279">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="J279">
         <v>2.52</v>
       </c>
       <c r="K279">
-        <v>990</v>
+        <v>5.8</v>
       </c>
       <c r="L279">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="M279">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="N279">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="O279">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="P279">
         <v>1.01</v>
@@ -58301,7 +58079,7 @@
         <v>1000</v>
       </c>
       <c r="BF279" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="BG279">
         <v>17394101</v>
@@ -58313,16 +58091,16 @@
         <v>58805</v>
       </c>
       <c r="BJ279" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="BK279" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="BL279" t="s">
-        <v>931</v>
+        <v>872</v>
       </c>
       <c r="BM279" t="s">
-        <v>971</v>
+        <v>897</v>
       </c>
     </row>
     <row r="280" spans="1:65">
@@ -58348,7 +58126,7 @@
         <v>2.28</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I280">
         <v>4.6</v>
@@ -58357,52 +58135,52 @@
         <v>3.05</v>
       </c>
       <c r="K280">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L280">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M280">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="N280">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O280">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="P280">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q280">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="R280">
         <v>1.68</v>
       </c>
       <c r="S280">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T280">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="U280">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="V280">
         <v>8.6</v>
       </c>
       <c r="W280">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X280">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="Y280">
         <v>36</v>
       </c>
       <c r="Z280">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA280">
         <v>130</v>
@@ -58414,91 +58192,91 @@
         <v>7.6</v>
       </c>
       <c r="AD280">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE280">
         <v>8.199999999999999</v>
       </c>
       <c r="AF280">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="AG280">
         <v>24</v>
       </c>
       <c r="AH280">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AI280">
         <v>90</v>
       </c>
       <c r="AJ280">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK280">
         <v>14.5</v>
       </c>
       <c r="AL280">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AM280">
         <v>14.5</v>
       </c>
       <c r="AN280">
-        <v>18</v>
+        <v>4.4</v>
       </c>
       <c r="AO280">
         <v>32</v>
       </c>
       <c r="AP280">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AQ280">
         <v>130</v>
       </c>
       <c r="AR280">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AS280">
         <v>36</v>
       </c>
       <c r="AT280">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AU280">
         <v>38</v>
       </c>
       <c r="AV280">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AW280">
         <v>75</v>
       </c>
       <c r="AX280">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AY280">
         <v>260</v>
       </c>
       <c r="AZ280">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BA280">
         <v>34</v>
       </c>
       <c r="BB280">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BC280">
         <v>130</v>
       </c>
       <c r="BD280">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BE280">
         <v>1000</v>
       </c>
       <c r="BF280" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="BG280">
         <v>23018379</v>
@@ -58510,16 +58288,16 @@
         <v>58805</v>
       </c>
       <c r="BJ280" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
       <c r="BK280" t="s">
-        <v>893</v>
+        <v>848</v>
       </c>
       <c r="BL280" t="s">
-        <v>932</v>
+        <v>873</v>
       </c>
       <c r="BM280" t="s">
-        <v>972</v>
+        <v>898</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -58539,28 +58317,28 @@
         <v>774</v>
       </c>
       <c r="F281">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G281">
         <v>2.88</v>
       </c>
       <c r="H281">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I281">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J281">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K281">
         <v>3.45</v>
       </c>
       <c r="L281">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="M281">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="N281">
         <v>2.04</v>
@@ -58569,16 +58347,16 @@
         <v>2.14</v>
       </c>
       <c r="P281">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q281">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R281">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S281">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T281">
         <v>11</v>
@@ -58596,16 +58374,16 @@
         <v>16</v>
       </c>
       <c r="Y281">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z281">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AA281">
         <v>46</v>
       </c>
       <c r="AB281">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC281">
         <v>11.5</v>
@@ -58626,13 +58404,13 @@
         <v>28</v>
       </c>
       <c r="AI281">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ281">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AK281">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL281">
         <v>10</v>
@@ -58653,13 +58431,13 @@
         <v>55</v>
       </c>
       <c r="AR281">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AS281">
         <v>42</v>
       </c>
       <c r="AT281">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AU281">
         <v>32</v>
@@ -58668,34 +58446,34 @@
         <v>32</v>
       </c>
       <c r="AW281">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX281">
         <v>12.5</v>
       </c>
       <c r="AY281">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ281">
         <v>21</v>
       </c>
       <c r="BA281">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB281">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="BC281">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BD281">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE281">
         <v>1000</v>
       </c>
       <c r="BF281" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="BG281">
         <v>27767097</v>
@@ -58707,16 +58485,16 @@
         <v>58805</v>
       </c>
       <c r="BJ281" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="BK281" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
       <c r="BL281" t="s">
-        <v>933</v>
+        <v>874</v>
       </c>
       <c r="BM281" t="s">
-        <v>973</v>
+        <v>899</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -58736,13 +58514,13 @@
         <v>775</v>
       </c>
       <c r="F282">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G282">
         <v>1.54</v>
       </c>
       <c r="H282">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I282">
         <v>8.800000000000001</v>
@@ -58766,16 +58544,16 @@
         <v>2.02</v>
       </c>
       <c r="P282">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q282">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R282">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S282">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
         <v>13.5</v>
@@ -58823,7 +58601,7 @@
         <v>13.5</v>
       </c>
       <c r="AI282">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AJ282">
         <v>7.4</v>
@@ -58865,7 +58643,7 @@
         <v>32</v>
       </c>
       <c r="AW282">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AX282">
         <v>13.5</v>
@@ -58886,13 +58664,13 @@
         <v>180</v>
       </c>
       <c r="BD282">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BE282">
         <v>1000</v>
       </c>
       <c r="BF282" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="BG282">
         <v>474678</v>
@@ -58904,16 +58682,16 @@
         <v>58805</v>
       </c>
       <c r="BJ282" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="BK282" t="s">
-        <v>895</v>
+        <v>850</v>
       </c>
       <c r="BL282" t="s">
-        <v>934</v>
+        <v>875</v>
       </c>
       <c r="BM282" t="s">
-        <v>974</v>
+        <v>900</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -58933,16 +58711,16 @@
         <v>776</v>
       </c>
       <c r="F283">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G283">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H283">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I283">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J283">
         <v>3.75</v>
@@ -58966,10 +58744,10 @@
         <v>1.6</v>
       </c>
       <c r="Q283">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="R283">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="S283">
         <v>2.68</v>
@@ -59014,7 +58792,7 @@
         <v>9.6</v>
       </c>
       <c r="AG283">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH283">
         <v>19</v>
@@ -59071,7 +58849,7 @@
         <v>980</v>
       </c>
       <c r="AZ283">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BA283">
         <v>21</v>
@@ -59089,7 +58867,7 @@
         <v>980</v>
       </c>
       <c r="BF283" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="BG283">
         <v>10002706</v>
@@ -59101,16 +58879,16 @@
         <v>58805</v>
       </c>
       <c r="BJ283" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="BK283" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
       <c r="BL283" t="s">
-        <v>935</v>
+        <v>876</v>
       </c>
       <c r="BM283" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -59130,7 +58908,7 @@
         <v>777</v>
       </c>
       <c r="F284">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G284">
         <v>1.86</v>
@@ -59142,40 +58920,40 @@
         <v>5</v>
       </c>
       <c r="J284">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K284">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L284">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="M284">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="N284">
+        <v>1.96</v>
+      </c>
+      <c r="O284">
         <v>1.99</v>
       </c>
-      <c r="O284">
-        <v>2.02</v>
-      </c>
       <c r="P284">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q284">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R284">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S284">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T284">
         <v>12.5</v>
       </c>
       <c r="U284">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V284">
         <v>15</v>
@@ -59187,22 +58965,22 @@
         <v>30</v>
       </c>
       <c r="Y284">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z284">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AA284">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB284">
         <v>8</v>
       </c>
       <c r="AC284">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD284">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE284">
         <v>9</v>
@@ -59220,7 +58998,7 @@
         <v>70</v>
       </c>
       <c r="AJ284">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK284">
         <v>11</v>
@@ -59232,13 +59010,13 @@
         <v>10.5</v>
       </c>
       <c r="AN284">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO284">
         <v>21</v>
       </c>
       <c r="AP284">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ284">
         <v>70</v>
@@ -59247,46 +59025,46 @@
         <v>17</v>
       </c>
       <c r="AS284">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AT284">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AU284">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV284">
         <v>32</v>
       </c>
       <c r="AW284">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX284">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AY284">
         <v>140</v>
       </c>
       <c r="AZ284">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BA284">
         <v>12</v>
       </c>
       <c r="BB284">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="BC284">
         <v>75</v>
       </c>
       <c r="BD284">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BE284">
         <v>1000</v>
       </c>
       <c r="BF284" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="BG284">
         <v>9280784</v>
@@ -59298,16 +59076,16 @@
         <v>58805</v>
       </c>
       <c r="BJ284" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="BK284" t="s">
-        <v>897</v>
+        <v>852</v>
       </c>
       <c r="BL284" t="s">
-        <v>936</v>
+        <v>877</v>
       </c>
       <c r="BM284" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -59327,58 +59105,58 @@
         <v>778</v>
       </c>
       <c r="F285">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="G285">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="H285">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I285">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J285">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K285">
         <v>4.2</v>
       </c>
       <c r="L285">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="M285">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="N285">
+        <v>1.57</v>
+      </c>
+      <c r="O285">
         <v>1.59</v>
-      </c>
-      <c r="O285">
-        <v>1.6</v>
       </c>
       <c r="P285">
         <v>1.52</v>
       </c>
       <c r="Q285">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R285">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="S285">
         <v>2.92</v>
       </c>
       <c r="T285">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U285">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V285">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W285">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X285">
         <v>17.5</v>
@@ -59387,22 +59165,22 @@
         <v>19.5</v>
       </c>
       <c r="Z285">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA285">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB285">
         <v>16.5</v>
       </c>
       <c r="AC285">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD285">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE285">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF285">
         <v>10.5</v>
@@ -59414,7 +59192,7 @@
         <v>19.5</v>
       </c>
       <c r="AI285">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ285">
         <v>21</v>
@@ -59435,22 +59213,22 @@
         <v>14.5</v>
       </c>
       <c r="AP285">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ285">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR285">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AS285">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT285">
         <v>24</v>
       </c>
       <c r="AU285">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV285">
         <v>27</v>
@@ -59459,7 +59237,7 @@
         <v>29</v>
       </c>
       <c r="AX285">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY285">
         <v>55</v>
@@ -59468,22 +59246,22 @@
         <v>14.5</v>
       </c>
       <c r="BA285">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BB285">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BC285">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BD285">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="BE285">
         <v>980</v>
       </c>
       <c r="BF285" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="BG285">
         <v>171907</v>
@@ -59495,16 +59273,16 @@
         <v>58805</v>
       </c>
       <c r="BJ285" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="BK285" t="s">
-        <v>898</v>
+        <v>853</v>
       </c>
       <c r="BL285" t="s">
-        <v>937</v>
+        <v>878</v>
       </c>
       <c r="BM285" t="s">
-        <v>977</v>
+        <v>903</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -59536,25 +59314,25 @@
         <v>5.9</v>
       </c>
       <c r="J286">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K286">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L286">
         <v>1.99</v>
       </c>
       <c r="M286">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="N286">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O286">
         <v>2.02</v>
       </c>
       <c r="P286">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q286">
         <v>2.02</v>
@@ -59584,7 +59362,7 @@
         <v>46</v>
       </c>
       <c r="Z286">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AA286">
         <v>150</v>
@@ -59632,7 +59410,7 @@
         <v>24</v>
       </c>
       <c r="AP286">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AQ286">
         <v>90</v>
@@ -59662,7 +59440,7 @@
         <v>140</v>
       </c>
       <c r="AZ286">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BA286">
         <v>11</v>
@@ -59680,7 +59458,7 @@
         <v>1000</v>
       </c>
       <c r="BF286" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="BG286">
         <v>2362970</v>
@@ -59692,16 +59470,16 @@
         <v>58805</v>
       </c>
       <c r="BJ286" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
       <c r="BK286" t="s">
-        <v>899</v>
+        <v>854</v>
       </c>
       <c r="BL286" t="s">
-        <v>938</v>
+        <v>879</v>
       </c>
       <c r="BM286" t="s">
-        <v>978</v>
+        <v>904</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -59721,52 +59499,52 @@
         <v>780</v>
       </c>
       <c r="F287">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G287">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H287">
         <v>3.35</v>
       </c>
       <c r="I287">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J287">
         <v>3.6</v>
       </c>
       <c r="K287">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L287">
         <v>2.08</v>
       </c>
       <c r="M287">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="N287">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O287">
         <v>1.92</v>
       </c>
       <c r="P287">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q287">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R287">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S287">
         <v>2.38</v>
       </c>
       <c r="T287">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U287">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V287">
         <v>12.5</v>
@@ -59778,16 +59556,16 @@
         <v>19.5</v>
       </c>
       <c r="Y287">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z287">
-        <v>7.6</v>
+        <v>44</v>
       </c>
       <c r="AA287">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB287">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC287">
         <v>11.5</v>
@@ -59802,13 +59580,13 @@
         <v>12.5</v>
       </c>
       <c r="AG287">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH287">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI287">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ287">
         <v>13</v>
@@ -59826,16 +59604,16 @@
         <v>15</v>
       </c>
       <c r="AO287">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP287">
         <v>36</v>
       </c>
       <c r="AQ287">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR287">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS287">
         <v>32</v>
@@ -59844,40 +59622,40 @@
         <v>20</v>
       </c>
       <c r="AU287">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV287">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW287">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AX287">
-        <v>7.8</v>
+        <v>36</v>
       </c>
       <c r="AY287">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ287">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BA287">
         <v>17.5</v>
       </c>
       <c r="BB287">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="BC287">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BD287">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="BE287">
         <v>980</v>
       </c>
       <c r="BF287" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="BG287">
         <v>436099</v>
@@ -59889,16 +59667,16 @@
         <v>58805</v>
       </c>
       <c r="BJ287" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="BK287" t="s">
-        <v>900</v>
+        <v>855</v>
       </c>
       <c r="BL287" t="s">
-        <v>939</v>
+        <v>880</v>
       </c>
       <c r="BM287" t="s">
-        <v>979</v>
+        <v>905</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -59918,46 +59696,46 @@
         <v>781</v>
       </c>
       <c r="F288">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G288">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="H288">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I288">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J288">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K288">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L288">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M288">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="N288">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O288">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P288">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q288">
         <v>2.08</v>
       </c>
       <c r="R288">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S288">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T288">
         <v>14.5</v>
@@ -59966,7 +59744,7 @@
         <v>16.5</v>
       </c>
       <c r="V288">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W288">
         <v>23</v>
@@ -59978,10 +59756,10 @@
         <v>60</v>
       </c>
       <c r="Z288">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA288">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AB288">
         <v>7.8</v>
@@ -59993,28 +59771,28 @@
         <v>9</v>
       </c>
       <c r="AE288">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AF288">
         <v>23</v>
       </c>
       <c r="AG288">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH288">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AI288">
         <v>110</v>
       </c>
       <c r="AJ288">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK288">
         <v>9</v>
       </c>
       <c r="AL288">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM288">
         <v>9.800000000000001</v>
@@ -60026,13 +59804,13 @@
         <v>24</v>
       </c>
       <c r="AP288">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AQ288">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR288">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AS288">
         <v>14.5</v>
@@ -60056,25 +59834,25 @@
         <v>140</v>
       </c>
       <c r="AZ288">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BA288">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB288">
         <v>40</v>
       </c>
       <c r="BC288">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="BD288">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BE288">
         <v>1000</v>
       </c>
       <c r="BF288" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="BG288">
         <v>5640226</v>
@@ -60086,16 +59864,16 @@
         <v>58805</v>
       </c>
       <c r="BJ288" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
       <c r="BK288" t="s">
-        <v>901</v>
+        <v>856</v>
       </c>
       <c r="BL288" t="s">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="BM288" t="s">
-        <v>980</v>
+        <v>906</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -60115,37 +59893,37 @@
         <v>782</v>
       </c>
       <c r="F289">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G289">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H289">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I289">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J289">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K289">
         <v>4.2</v>
       </c>
       <c r="L289">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="M289">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="N289">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="O289">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="P289">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q289">
         <v>1.8</v>
@@ -60154,10 +59932,10 @@
         <v>2.26</v>
       </c>
       <c r="S289">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T289">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U289">
         <v>18</v>
@@ -60166,7 +59944,7 @@
         <v>18</v>
       </c>
       <c r="W289">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X289">
         <v>34</v>
@@ -60175,7 +59953,7 @@
         <v>38</v>
       </c>
       <c r="Z289">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA289">
         <v>110</v>
@@ -60184,7 +59962,7 @@
         <v>9.6</v>
       </c>
       <c r="AC289">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD289">
         <v>8.6</v>
@@ -60196,7 +59974,7 @@
         <v>17</v>
       </c>
       <c r="AG289">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH289">
         <v>48</v>
@@ -60208,7 +59986,7 @@
         <v>10.5</v>
       </c>
       <c r="AK289">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL289">
         <v>9.199999999999999</v>
@@ -60226,7 +60004,7 @@
         <v>50</v>
       </c>
       <c r="AQ289">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR289">
         <v>17.5</v>
@@ -60235,7 +60013,7 @@
         <v>19.5</v>
       </c>
       <c r="AT289">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU289">
         <v>17.5</v>
@@ -60253,10 +60031,10 @@
         <v>85</v>
       </c>
       <c r="AZ289">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BA289">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB289">
         <v>42</v>
@@ -60265,13 +60043,13 @@
         <v>50</v>
       </c>
       <c r="BD289">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BE289">
         <v>980</v>
       </c>
       <c r="BF289" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="BG289">
         <v>10962520</v>
@@ -60283,16 +60061,16 @@
         <v>58805</v>
       </c>
       <c r="BJ289" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="BK289" t="s">
-        <v>902</v>
+        <v>857</v>
       </c>
       <c r="BL289" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
       <c r="BM289" t="s">
-        <v>981</v>
+        <v>907</v>
       </c>
     </row>
     <row r="290" spans="1:65">
@@ -60312,16 +60090,16 @@
         <v>783</v>
       </c>
       <c r="F290">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G290">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H290">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I290">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J290">
         <v>4</v>
@@ -60330,28 +60108,28 @@
         <v>4.1</v>
       </c>
       <c r="L290">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="M290">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="N290">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="O290">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="P290">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q290">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R290">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="S290">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T290">
         <v>15.5</v>
@@ -60363,7 +60141,7 @@
         <v>16.5</v>
       </c>
       <c r="W290">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X290">
         <v>29</v>
@@ -60381,7 +60159,7 @@
         <v>9.6</v>
       </c>
       <c r="AC290">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD290">
         <v>8.199999999999999</v>
@@ -60390,16 +60168,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AF290">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG290">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH290">
         <v>42</v>
       </c>
       <c r="AI290">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ290">
         <v>11</v>
@@ -60426,7 +60204,7 @@
         <v>55</v>
       </c>
       <c r="AR290">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AS290">
         <v>22</v>
@@ -60444,7 +60222,7 @@
         <v>32</v>
       </c>
       <c r="AX290">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AY290">
         <v>90</v>
@@ -60462,13 +60240,13 @@
         <v>48</v>
       </c>
       <c r="BD290">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BE290">
         <v>980</v>
       </c>
       <c r="BF290" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="BG290">
         <v>4589333</v>
@@ -60480,16 +60258,16 @@
         <v>58805</v>
       </c>
       <c r="BJ290" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
       <c r="BK290" t="s">
-        <v>903</v>
+        <v>858</v>
       </c>
       <c r="BL290" t="s">
-        <v>942</v>
+        <v>883</v>
       </c>
       <c r="BM290" t="s">
-        <v>982</v>
+        <v>908</v>
       </c>
     </row>
     <row r="291" spans="1:65">
@@ -60524,7 +60302,7 @@
         <v>4.4</v>
       </c>
       <c r="K291">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L291">
         <v>2.4</v>
@@ -60533,19 +60311,19 @@
         <v>2.44</v>
       </c>
       <c r="N291">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O291">
         <v>1.71</v>
       </c>
       <c r="P291">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q291">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R291">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S291">
         <v>2.3</v>
@@ -60578,7 +60356,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC291">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD291">
         <v>9.6</v>
@@ -60593,7 +60371,7 @@
         <v>23</v>
       </c>
       <c r="AH291">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AI291">
         <v>75</v>
@@ -60617,7 +60395,7 @@
         <v>19.5</v>
       </c>
       <c r="AP291">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AQ291">
         <v>70</v>
@@ -60644,7 +60422,7 @@
         <v>36</v>
       </c>
       <c r="AY291">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AZ291">
         <v>7</v>
@@ -60653,19 +60431,19 @@
         <v>7.6</v>
       </c>
       <c r="BB291">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="BC291">
         <v>70</v>
       </c>
       <c r="BD291">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BE291">
         <v>980</v>
       </c>
       <c r="BF291" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="BG291">
         <v>171903</v>
@@ -60677,16 +60455,16 @@
         <v>58805</v>
       </c>
       <c r="BJ291" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="BK291" t="s">
-        <v>904</v>
+        <v>859</v>
       </c>
       <c r="BL291" t="s">
-        <v>943</v>
+        <v>884</v>
       </c>
       <c r="BM291" t="s">
-        <v>983</v>
+        <v>909</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -60706,25 +60484,25 @@
         <v>785</v>
       </c>
       <c r="F292">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G292">
+        <v>1.97</v>
+      </c>
+      <c r="H292">
+        <v>4.3</v>
+      </c>
+      <c r="I292">
+        <v>4.5</v>
+      </c>
+      <c r="J292">
+        <v>3.75</v>
+      </c>
+      <c r="K292">
+        <v>3.9</v>
+      </c>
+      <c r="L292">
         <v>1.94</v>
-      </c>
-      <c r="H292">
-        <v>4.5</v>
-      </c>
-      <c r="I292">
-        <v>4.8</v>
-      </c>
-      <c r="J292">
-        <v>3.7</v>
-      </c>
-      <c r="K292">
-        <v>3.85</v>
-      </c>
-      <c r="L292">
-        <v>1.91</v>
       </c>
       <c r="M292">
         <v>2</v>
@@ -60733,16 +60511,16 @@
         <v>2</v>
       </c>
       <c r="O292">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P292">
         <v>1.89</v>
       </c>
       <c r="Q292">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R292">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S292">
         <v>2.12</v>
@@ -60760,13 +60538,13 @@
         <v>16</v>
       </c>
       <c r="X292">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y292">
         <v>34</v>
       </c>
       <c r="Z292">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA292">
         <v>100</v>
@@ -60784,7 +60562,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF292">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG292">
         <v>18</v>
@@ -60799,7 +60577,7 @@
         <v>10</v>
       </c>
       <c r="AK292">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AL292">
         <v>9.6</v>
@@ -60808,7 +60586,7 @@
         <v>10</v>
       </c>
       <c r="AN292">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO292">
         <v>20</v>
@@ -60829,7 +60607,7 @@
         <v>18</v>
       </c>
       <c r="AU292">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV292">
         <v>32</v>
@@ -60838,7 +60616,7 @@
         <v>38</v>
       </c>
       <c r="AX292">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AY292">
         <v>120</v>
@@ -60850,19 +60628,19 @@
         <v>13.5</v>
       </c>
       <c r="BB292">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="BC292">
         <v>70</v>
       </c>
       <c r="BD292">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BE292">
         <v>1000</v>
       </c>
       <c r="BF292" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="BG292">
         <v>198139</v>
@@ -60874,16 +60652,16 @@
         <v>58805</v>
       </c>
       <c r="BJ292" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="BK292" t="s">
-        <v>905</v>
+        <v>860</v>
       </c>
       <c r="BL292" t="s">
-        <v>944</v>
+        <v>885</v>
       </c>
       <c r="BM292" t="s">
-        <v>984</v>
+        <v>910</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -60903,40 +60681,40 @@
         <v>786</v>
       </c>
       <c r="F293">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G293">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H293">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I293">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J293">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K293">
         <v>3.35</v>
       </c>
       <c r="L293">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M293">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N293">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O293">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="P293">
         <v>2</v>
       </c>
       <c r="Q293">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R293">
         <v>1.86</v>
@@ -60945,13 +60723,13 @@
         <v>2</v>
       </c>
       <c r="T293">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="U293">
         <v>11</v>
       </c>
       <c r="V293">
-        <v>1.13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W293">
         <v>12.5</v>
@@ -60960,13 +60738,13 @@
         <v>19</v>
       </c>
       <c r="Y293">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z293">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="AA293">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB293">
         <v>6.8</v>
@@ -60987,7 +60765,7 @@
         <v>17.5</v>
       </c>
       <c r="AH293">
-        <v>1.35</v>
+        <v>2.98</v>
       </c>
       <c r="AI293">
         <v>1000</v>
@@ -60999,19 +60777,19 @@
         <v>14.5</v>
       </c>
       <c r="AL293">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM293">
         <v>13</v>
       </c>
       <c r="AN293">
-        <v>5.6</v>
+        <v>18</v>
       </c>
       <c r="AO293">
         <v>1000</v>
       </c>
       <c r="AP293">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="AQ293">
         <v>70</v>
@@ -61023,43 +60801,43 @@
         <v>1000</v>
       </c>
       <c r="AT293">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AU293">
         <v>1000</v>
       </c>
       <c r="AV293">
+        <v>1.62</v>
+      </c>
+      <c r="AW293">
+        <v>1000</v>
+      </c>
+      <c r="AX293">
+        <v>1.62</v>
+      </c>
+      <c r="AY293">
+        <v>1000</v>
+      </c>
+      <c r="AZ293">
+        <v>1.27</v>
+      </c>
+      <c r="BA293">
+        <v>1000</v>
+      </c>
+      <c r="BB293">
         <v>1.25</v>
-      </c>
-      <c r="AW293">
-        <v>1000</v>
-      </c>
-      <c r="AX293">
-        <v>1.38</v>
-      </c>
-      <c r="AY293">
-        <v>1000</v>
-      </c>
-      <c r="AZ293">
-        <v>1.25</v>
-      </c>
-      <c r="BA293">
-        <v>1000</v>
-      </c>
-      <c r="BB293">
-        <v>1.23</v>
       </c>
       <c r="BC293">
         <v>70</v>
       </c>
       <c r="BD293">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="BE293">
         <v>1000</v>
       </c>
       <c r="BF293" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="BG293">
         <v>10632891</v>
@@ -61071,16 +60849,16 @@
         <v>58805</v>
       </c>
       <c r="BJ293" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="BK293" t="s">
-        <v>906</v>
+        <v>861</v>
       </c>
       <c r="BL293" t="s">
-        <v>945</v>
+        <v>886</v>
       </c>
       <c r="BM293" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -61100,13 +60878,13 @@
         <v>787</v>
       </c>
       <c r="F294">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G294">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="H294">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I294">
         <v>5.6</v>
@@ -61139,7 +60917,7 @@
         <v>1.84</v>
       </c>
       <c r="S294">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T294">
         <v>9.800000000000001</v>
@@ -61166,7 +60944,7 @@
         <v>980</v>
       </c>
       <c r="AB294">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC294">
         <v>9.199999999999999</v>
@@ -61178,7 +60956,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AF294">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG294">
         <v>980</v>
@@ -61202,7 +60980,7 @@
         <v>980</v>
       </c>
       <c r="AN294">
-        <v>4.2</v>
+        <v>18</v>
       </c>
       <c r="AO294">
         <v>27</v>
@@ -61214,7 +60992,7 @@
         <v>980</v>
       </c>
       <c r="AR294">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AS294">
         <v>24</v>
@@ -61256,7 +61034,7 @@
         <v>1000</v>
       </c>
       <c r="BF294" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="BG294">
         <v>2844791</v>
@@ -61268,16 +61046,16 @@
         <v>58805</v>
       </c>
       <c r="BJ294" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="BK294" t="s">
-        <v>907</v>
+        <v>862</v>
       </c>
       <c r="BL294" t="s">
-        <v>946</v>
+        <v>887</v>
       </c>
       <c r="BM294" t="s">
-        <v>986</v>
+        <v>912</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -61297,16 +61075,16 @@
         <v>788</v>
       </c>
       <c r="F295">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G295">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H295">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I295">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J295">
         <v>3.95</v>
@@ -61315,25 +61093,25 @@
         <v>4</v>
       </c>
       <c r="L295">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="M295">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="N295">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O295">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P295">
         <v>1.54</v>
       </c>
       <c r="Q295">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R295">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="S295">
         <v>2.86</v>
@@ -61348,10 +61126,10 @@
         <v>15</v>
       </c>
       <c r="W295">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="X295">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y295">
         <v>22</v>
@@ -61360,13 +61138,13 @@
         <v>36</v>
       </c>
       <c r="AA295">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB295">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC295">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD295">
         <v>9</v>
@@ -61384,13 +61162,13 @@
         <v>23</v>
       </c>
       <c r="AI295">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ295">
         <v>18</v>
       </c>
       <c r="AK295">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL295">
         <v>11</v>
@@ -61405,7 +61183,7 @@
         <v>15.5</v>
       </c>
       <c r="AP295">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ295">
         <v>32</v>
@@ -61414,7 +61192,7 @@
         <v>32</v>
       </c>
       <c r="AS295">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AT295">
         <v>21</v>
@@ -61429,7 +61207,7 @@
         <v>29</v>
       </c>
       <c r="AX295">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AY295">
         <v>60</v>
@@ -61438,22 +61216,22 @@
         <v>12</v>
       </c>
       <c r="BA295">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BB295">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC295">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BD295">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BE295">
         <v>980</v>
       </c>
       <c r="BF295" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="BG295">
         <v>226469</v>
@@ -61465,16 +61243,16 @@
         <v>58805</v>
       </c>
       <c r="BJ295" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="BK295" t="s">
-        <v>908</v>
+        <v>863</v>
       </c>
       <c r="BL295" t="s">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="BM295" t="s">
-        <v>987</v>
+        <v>913</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61494,31 +61272,31 @@
         <v>789</v>
       </c>
       <c r="F296">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="G296">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H296">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I296">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J296">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K296">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L296">
         <v>2.08</v>
       </c>
       <c r="M296">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="N296">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O296">
         <v>1.92</v>
@@ -61536,7 +61314,7 @@
         <v>2.28</v>
       </c>
       <c r="T296">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U296">
         <v>16.5</v>
@@ -61548,19 +61326,19 @@
         <v>18</v>
       </c>
       <c r="X296">
-        <v>8.6</v>
+        <v>27</v>
       </c>
       <c r="Y296">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z296">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA296">
         <v>90</v>
       </c>
       <c r="AB296">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC296">
         <v>10.5</v>
@@ -61578,7 +61356,7 @@
         <v>17.5</v>
       </c>
       <c r="AH296">
-        <v>9.4</v>
+        <v>38</v>
       </c>
       <c r="AI296">
         <v>55</v>
@@ -61590,19 +61368,19 @@
         <v>12.5</v>
       </c>
       <c r="AL296">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM296">
         <v>10.5</v>
       </c>
       <c r="AN296">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO296">
         <v>18.5</v>
       </c>
       <c r="AP296">
-        <v>9.6</v>
+        <v>29</v>
       </c>
       <c r="AQ296">
         <v>60</v>
@@ -61611,46 +61389,46 @@
         <v>20</v>
       </c>
       <c r="AS296">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT296">
         <v>17.5</v>
       </c>
       <c r="AU296">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AV296">
-        <v>8.6</v>
+        <v>28</v>
       </c>
       <c r="AW296">
         <v>34</v>
       </c>
       <c r="AX296">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AY296">
         <v>95</v>
       </c>
       <c r="AZ296">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA296">
         <v>13.5</v>
       </c>
       <c r="BB296">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="BC296">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BD296">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BE296">
         <v>980</v>
       </c>
       <c r="BF296" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="BG296">
         <v>17790476</v>
@@ -61662,16 +61440,16 @@
         <v>58805</v>
       </c>
       <c r="BJ296" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="BK296" t="s">
-        <v>909</v>
+        <v>864</v>
       </c>
       <c r="BL296" t="s">
-        <v>948</v>
+        <v>889</v>
       </c>
       <c r="BM296" t="s">
-        <v>988</v>
+        <v>914</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -61691,19 +61469,19 @@
         <v>790</v>
       </c>
       <c r="F297">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G297">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H297">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I297">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J297">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K297">
         <v>3.35</v>
@@ -61712,7 +61490,7 @@
         <v>1.7</v>
       </c>
       <c r="M297">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N297">
         <v>2.3</v>
@@ -61721,16 +61499,16 @@
         <v>2.44</v>
       </c>
       <c r="P297">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q297">
         <v>2.06</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S297">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T297">
         <v>9.4</v>
@@ -61775,7 +61553,7 @@
         <v>13</v>
       </c>
       <c r="AH297">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI297">
         <v>36</v>
@@ -61817,7 +61595,7 @@
         <v>38</v>
       </c>
       <c r="AV297">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW297">
         <v>60</v>
@@ -61847,7 +61625,7 @@
         <v>1000</v>
       </c>
       <c r="BF297" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="BG297">
         <v>2937353</v>
@@ -61859,16 +61637,16 @@
         <v>58805</v>
       </c>
       <c r="BJ297" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="BK297" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="BL297" t="s">
-        <v>949</v>
+        <v>890</v>
       </c>
       <c r="BM297" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -61888,19 +61666,19 @@
         <v>791</v>
       </c>
       <c r="F298">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G298">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H298">
+        <v>4.1</v>
+      </c>
+      <c r="I298">
+        <v>4.2</v>
+      </c>
+      <c r="J298">
         <v>3.95</v>
-      </c>
-      <c r="I298">
-        <v>4.1</v>
-      </c>
-      <c r="J298">
-        <v>4</v>
       </c>
       <c r="K298">
         <v>4.1</v>
@@ -61909,22 +61687,22 @@
         <v>2.38</v>
       </c>
       <c r="M298">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="N298">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O298">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="P298">
         <v>1.62</v>
       </c>
       <c r="Q298">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R298">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="S298">
         <v>2.62</v>
@@ -61939,19 +61717,19 @@
         <v>17.5</v>
       </c>
       <c r="W298">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X298">
         <v>29</v>
       </c>
       <c r="Y298">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z298">
         <v>60</v>
       </c>
       <c r="AA298">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB298">
         <v>11</v>
@@ -61975,7 +61753,7 @@
         <v>34</v>
       </c>
       <c r="AI298">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ298">
         <v>12.5</v>
@@ -61999,7 +61777,7 @@
         <v>38</v>
       </c>
       <c r="AQ298">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR298">
         <v>21</v>
@@ -62008,7 +61786,7 @@
         <v>24</v>
       </c>
       <c r="AT298">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AU298">
         <v>18</v>
@@ -62026,7 +61804,7 @@
         <v>70</v>
       </c>
       <c r="AZ298">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA298">
         <v>10.5</v>
@@ -62038,13 +61816,13 @@
         <v>34</v>
       </c>
       <c r="BD298">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE298">
         <v>980</v>
       </c>
       <c r="BF298" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="BG298">
         <v>7533070</v>
@@ -62056,16 +61834,16 @@
         <v>58805</v>
       </c>
       <c r="BJ298" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="BK298" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
       <c r="BL298" t="s">
-        <v>950</v>
+        <v>891</v>
       </c>
       <c r="BM298" t="s">
-        <v>990</v>
+        <v>916</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -62085,10 +61863,10 @@
         <v>792</v>
       </c>
       <c r="F299">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G299">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H299">
         <v>6.4</v>
@@ -62097,25 +61875,25 @@
         <v>7.2</v>
       </c>
       <c r="J299">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K299">
         <v>4.9</v>
       </c>
       <c r="L299">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N299">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O299">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="P299">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q299">
         <v>1.99</v>
@@ -62124,7 +61902,7 @@
         <v>2.02</v>
       </c>
       <c r="S299">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T299">
         <v>15</v>
@@ -62136,16 +61914,16 @@
         <v>19</v>
       </c>
       <c r="W299">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X299">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y299">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z299">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA299">
         <v>980</v>
@@ -62154,13 +61932,13 @@
         <v>8.4</v>
       </c>
       <c r="AC299">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD299">
         <v>9.4</v>
       </c>
       <c r="AE299">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF299">
         <v>20</v>
@@ -62169,7 +61947,7 @@
         <v>28</v>
       </c>
       <c r="AH299">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AI299">
         <v>980</v>
@@ -62193,7 +61971,7 @@
         <v>25</v>
       </c>
       <c r="AP299">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AQ299">
         <v>90</v>
@@ -62211,37 +61989,37 @@
         <v>17</v>
       </c>
       <c r="AV299">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW299">
         <v>36</v>
       </c>
       <c r="AX299">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY299">
         <v>980</v>
       </c>
       <c r="AZ299">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BA299">
         <v>7.8</v>
       </c>
       <c r="BB299">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="BC299">
         <v>980</v>
       </c>
       <c r="BD299">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BE299">
         <v>1000</v>
       </c>
       <c r="BF299" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="BG299">
         <v>328916</v>
@@ -62253,16 +62031,16 @@
         <v>58805</v>
       </c>
       <c r="BJ299" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
       <c r="BK299" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="BL299" t="s">
-        <v>951</v>
+        <v>892</v>
       </c>
       <c r="BM299" t="s">
-        <v>991</v>
+        <v>917</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -62282,46 +62060,46 @@
         <v>793</v>
       </c>
       <c r="F300">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="G300">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I300">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="J300">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K300">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L300">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="M300">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="N300">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O300">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P300">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q300">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R300">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="S300">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T300">
         <v>14</v>
@@ -62330,115 +62108,115 @@
         <v>19</v>
       </c>
       <c r="V300">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="W300">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X300">
+        <v>17.5</v>
+      </c>
+      <c r="Y300">
+        <v>21</v>
+      </c>
+      <c r="Z300">
+        <v>32</v>
+      </c>
+      <c r="AA300">
+        <v>44</v>
+      </c>
+      <c r="AB300">
+        <v>11</v>
+      </c>
+      <c r="AC300">
+        <v>15</v>
+      </c>
+      <c r="AD300">
+        <v>7.4</v>
+      </c>
+      <c r="AE300">
+        <v>9.4</v>
+      </c>
+      <c r="AF300">
+        <v>11</v>
+      </c>
+      <c r="AG300">
+        <v>13.5</v>
+      </c>
+      <c r="AH300">
+        <v>23</v>
+      </c>
+      <c r="AI300">
+        <v>29</v>
+      </c>
+      <c r="AJ300">
+        <v>15</v>
+      </c>
+      <c r="AK300">
+        <v>21</v>
+      </c>
+      <c r="AL300">
+        <v>10</v>
+      </c>
+      <c r="AM300">
+        <v>13.5</v>
+      </c>
+      <c r="AN300">
+        <v>13</v>
+      </c>
+      <c r="AO300">
+        <v>17.5</v>
+      </c>
+      <c r="AP300">
+        <v>29</v>
+      </c>
+      <c r="AQ300">
+        <v>40</v>
+      </c>
+      <c r="AR300">
+        <v>29</v>
+      </c>
+      <c r="AS300">
+        <v>42</v>
+      </c>
+      <c r="AT300">
+        <v>21</v>
+      </c>
+      <c r="AU300">
+        <v>29</v>
+      </c>
+      <c r="AV300">
+        <v>27</v>
+      </c>
+      <c r="AW300">
+        <v>40</v>
+      </c>
+      <c r="AX300">
+        <v>7</v>
+      </c>
+      <c r="AY300">
+        <v>80</v>
+      </c>
+      <c r="AZ300">
+        <v>5.6</v>
+      </c>
+      <c r="BA300">
         <v>20</v>
       </c>
-      <c r="Y300">
-        <v>25</v>
-      </c>
-      <c r="Z300">
-        <v>7.2</v>
-      </c>
-      <c r="AA300">
-        <v>55</v>
-      </c>
-      <c r="AB300">
-        <v>9.6</v>
-      </c>
-      <c r="AC300">
-        <v>13</v>
-      </c>
-      <c r="AD300">
-        <v>7.2</v>
-      </c>
-      <c r="AE300">
-        <v>9.6</v>
-      </c>
-      <c r="AF300">
-        <v>11.5</v>
-      </c>
-      <c r="AG300">
-        <v>15</v>
-      </c>
-      <c r="AH300">
-        <v>26</v>
-      </c>
-      <c r="AI300">
-        <v>34</v>
-      </c>
-      <c r="AJ300">
-        <v>12.5</v>
-      </c>
-      <c r="AK300">
-        <v>17</v>
-      </c>
-      <c r="AL300">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM300">
-        <v>12.5</v>
-      </c>
-      <c r="AN300">
-        <v>13.5</v>
-      </c>
-      <c r="AO300">
-        <v>18</v>
-      </c>
-      <c r="AP300">
-        <v>32</v>
-      </c>
-      <c r="AQ300">
-        <v>42</v>
-      </c>
-      <c r="AR300">
-        <v>6.6</v>
-      </c>
-      <c r="AS300">
-        <v>32</v>
-      </c>
-      <c r="AT300">
-        <v>18</v>
-      </c>
-      <c r="AU300">
-        <v>24</v>
-      </c>
-      <c r="AV300">
-        <v>26</v>
-      </c>
-      <c r="AW300">
-        <v>36</v>
-      </c>
-      <c r="AX300">
-        <v>7.4</v>
-      </c>
-      <c r="AY300">
-        <v>85</v>
-      </c>
-      <c r="AZ300">
-        <v>5.5</v>
-      </c>
-      <c r="BA300">
-        <v>17</v>
-      </c>
       <c r="BB300">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="BC300">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BD300">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BE300">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="BF300" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="BG300">
         <v>230914</v>
@@ -62450,16 +62228,16 @@
         <v>58805</v>
       </c>
       <c r="BJ300" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
       <c r="BK300" t="s">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="BL300" t="s">
-        <v>952</v>
+        <v>893</v>
       </c>
       <c r="BM300" t="s">
-        <v>992</v>
+        <v>918</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62500,16 +62278,16 @@
         <v>2.5</v>
       </c>
       <c r="M301">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="N301">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O301">
         <v>1.67</v>
       </c>
       <c r="P301">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q301">
         <v>1.74</v>
@@ -62533,7 +62311,7 @@
         <v>29</v>
       </c>
       <c r="X301">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y301">
         <v>55</v>
@@ -62563,7 +62341,7 @@
         <v>25</v>
       </c>
       <c r="AH301">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI301">
         <v>70</v>
@@ -62587,7 +62365,7 @@
         <v>23</v>
       </c>
       <c r="AP301">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AQ301">
         <v>70</v>
@@ -62611,7 +62389,7 @@
         <v>34</v>
       </c>
       <c r="AX301">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY301">
         <v>980</v>
@@ -62635,7 +62413,7 @@
         <v>980</v>
       </c>
       <c r="BF301" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="BG301">
         <v>328954</v>
@@ -62647,16 +62425,16 @@
         <v>58805</v>
       </c>
       <c r="BJ301" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="BK301" t="s">
-        <v>914</v>
+        <v>869</v>
       </c>
       <c r="BL301" t="s">
-        <v>953</v>
+        <v>894</v>
       </c>
       <c r="BM301" t="s">
-        <v>993</v>
+        <v>919</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -62679,13 +62457,13 @@
         <v>1.42</v>
       </c>
       <c r="G302">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H302">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I302">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J302">
         <v>5.4</v>
@@ -62694,7 +62472,7 @@
         <v>5.8</v>
       </c>
       <c r="L302">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="M302">
         <v>3</v>
@@ -62703,10 +62481,10 @@
         <v>1.5</v>
       </c>
       <c r="O302">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P302">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q302">
         <v>1.8</v>
@@ -62715,28 +62493,28 @@
         <v>2.26</v>
       </c>
       <c r="S302">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T302">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="U302">
         <v>29</v>
       </c>
       <c r="V302">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W302">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X302">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y302">
         <v>75</v>
       </c>
       <c r="Z302">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA302">
         <v>980</v>
@@ -62754,7 +62532,7 @@
         <v>13</v>
       </c>
       <c r="AF302">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG302">
         <v>32</v>
@@ -62802,37 +62580,37 @@
         <v>14</v>
       </c>
       <c r="AV302">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW302">
         <v>27</v>
       </c>
       <c r="AX302">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AY302">
         <v>980</v>
       </c>
       <c r="AZ302">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BA302">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="BB302">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="BC302">
         <v>90</v>
       </c>
       <c r="BD302">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="BE302">
         <v>980</v>
       </c>
       <c r="BF302" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="BG302">
         <v>17268707</v>
@@ -62844,16 +62622,16 @@
         <v>58805</v>
       </c>
       <c r="BJ302" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="BK302" t="s">
-        <v>915</v>
+        <v>870</v>
       </c>
       <c r="BL302" t="s">
-        <v>954</v>
+        <v>895</v>
       </c>
       <c r="BM302" t="s">
-        <v>994</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="911">
   <si>
     <t>League</t>
   </si>
@@ -2404,12 +2404,6 @@
     <t>Portland Timbers</t>
   </si>
   <si>
-    <t>33218359</t>
-  </si>
-  <si>
-    <t>33223821</t>
-  </si>
-  <si>
     <t>33218351</t>
   </si>
   <si>
@@ -2479,12 +2473,6 @@
     <t>33210866</t>
   </si>
   <si>
-    <t>1.228045838</t>
-  </si>
-  <si>
-    <t>1.228128619</t>
-  </si>
-  <si>
     <t>1.228046296</t>
   </si>
   <si>
@@ -2554,12 +2542,6 @@
     <t>1.227920940</t>
   </si>
   <si>
-    <t>1.228045883</t>
-  </si>
-  <si>
-    <t>1.228128664</t>
-  </si>
-  <si>
     <t>1.228046341</t>
   </si>
   <si>
@@ -2629,12 +2611,6 @@
     <t>1.227920950</t>
   </si>
   <si>
-    <t>1.228045922</t>
-  </si>
-  <si>
-    <t>1.228128703</t>
-  </si>
-  <si>
     <t>1.228046380</t>
   </si>
   <si>
@@ -2702,12 +2678,6 @@
   </si>
   <si>
     <t>1.227920939</t>
-  </si>
-  <si>
-    <t>1.228045847</t>
-  </si>
-  <si>
-    <t>1.228128628</t>
   </si>
   <si>
     <t>1.228046305</t>
@@ -57881,8 +57851,8 @@
       <c r="BE278">
         <v>1000</v>
       </c>
-      <c r="BF278" t="s">
-        <v>796</v>
+      <c r="BF278">
+        <v>33218359</v>
       </c>
       <c r="BG278">
         <v>5231799</v>
@@ -57893,17 +57863,17 @@
       <c r="BI278">
         <v>58805</v>
       </c>
-      <c r="BJ278" t="s">
-        <v>821</v>
-      </c>
-      <c r="BK278" t="s">
-        <v>846</v>
-      </c>
-      <c r="BL278" t="s">
-        <v>871</v>
-      </c>
-      <c r="BM278" t="s">
-        <v>896</v>
+      <c r="BJ278">
+        <v>1.228045838</v>
+      </c>
+      <c r="BK278">
+        <v>1.228045883</v>
+      </c>
+      <c r="BL278">
+        <v>1.228045922</v>
+      </c>
+      <c r="BM278">
+        <v>1.228045847</v>
       </c>
     </row>
     <row r="279" spans="1:65">
@@ -58078,8 +58048,8 @@
       <c r="BE279">
         <v>1000</v>
       </c>
-      <c r="BF279" t="s">
-        <v>797</v>
+      <c r="BF279">
+        <v>33223821</v>
       </c>
       <c r="BG279">
         <v>17394101</v>
@@ -58090,17 +58060,17 @@
       <c r="BI279">
         <v>58805</v>
       </c>
-      <c r="BJ279" t="s">
-        <v>822</v>
-      </c>
-      <c r="BK279" t="s">
-        <v>847</v>
-      </c>
-      <c r="BL279" t="s">
-        <v>872</v>
-      </c>
-      <c r="BM279" t="s">
-        <v>897</v>
+      <c r="BJ279">
+        <v>1.228128619</v>
+      </c>
+      <c r="BK279">
+        <v>1.228128664</v>
+      </c>
+      <c r="BL279">
+        <v>1.228128703</v>
+      </c>
+      <c r="BM279">
+        <v>1.228128628</v>
       </c>
     </row>
     <row r="280" spans="1:65">
@@ -58120,16 +58090,16 @@
         <v>773</v>
       </c>
       <c r="F280">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G280">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H280">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I280">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J280">
         <v>3.05</v>
@@ -58162,7 +58132,7 @@
         <v>1.89</v>
       </c>
       <c r="T280">
-        <v>7</v>
+        <v>3.55</v>
       </c>
       <c r="U280">
         <v>9.6</v>
@@ -58171,19 +58141,19 @@
         <v>8.6</v>
       </c>
       <c r="W280">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X280">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y280">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z280">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AA280">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB280">
         <v>6</v>
@@ -58198,16 +58168,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF280">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="AG280">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH280">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AI280">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ280">
         <v>9.800000000000001</v>
@@ -58216,67 +58186,67 @@
         <v>14.5</v>
       </c>
       <c r="AL280">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AM280">
         <v>14.5</v>
       </c>
       <c r="AN280">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO280">
         <v>32</v>
       </c>
       <c r="AP280">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AQ280">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AR280">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AS280">
         <v>36</v>
       </c>
       <c r="AT280">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AU280">
         <v>38</v>
       </c>
       <c r="AV280">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AW280">
         <v>75</v>
       </c>
       <c r="AX280">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AY280">
         <v>260</v>
       </c>
       <c r="AZ280">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BA280">
         <v>34</v>
       </c>
       <c r="BB280">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BC280">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="BD280">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BE280">
         <v>1000</v>
       </c>
       <c r="BF280" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="BG280">
         <v>23018379</v>
@@ -58288,16 +58258,16 @@
         <v>58805</v>
       </c>
       <c r="BJ280" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="BK280" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="BL280" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="BM280" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -58320,16 +58290,16 @@
         <v>2.7</v>
       </c>
       <c r="G281">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H281">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I281">
         <v>2.96</v>
       </c>
       <c r="J281">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K281">
         <v>3.45</v>
@@ -58377,7 +58347,7 @@
         <v>19.5</v>
       </c>
       <c r="Z281">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AA281">
         <v>46</v>
@@ -58407,7 +58377,7 @@
         <v>60</v>
       </c>
       <c r="AJ281">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="AK281">
         <v>18.5</v>
@@ -58434,7 +58404,7 @@
         <v>34</v>
       </c>
       <c r="AS281">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AT281">
         <v>26</v>
@@ -58467,13 +58437,13 @@
         <v>34</v>
       </c>
       <c r="BD281">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BE281">
         <v>1000</v>
       </c>
       <c r="BF281" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="BG281">
         <v>27767097</v>
@@ -58485,16 +58455,16 @@
         <v>58805</v>
       </c>
       <c r="BJ281" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BK281" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="BL281" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="BM281" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -58514,13 +58484,13 @@
         <v>775</v>
       </c>
       <c r="F282">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G282">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H282">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I282">
         <v>8.800000000000001</v>
@@ -58550,7 +58520,7 @@
         <v>2.22</v>
       </c>
       <c r="R282">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S282">
         <v>1.95</v>
@@ -58562,7 +58532,7 @@
         <v>15</v>
       </c>
       <c r="V282">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W282">
         <v>26</v>
@@ -58574,10 +58544,10 @@
         <v>65</v>
       </c>
       <c r="Z282">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA282">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB282">
         <v>7.2</v>
@@ -58601,10 +58571,10 @@
         <v>13.5</v>
       </c>
       <c r="AI282">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AJ282">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK282">
         <v>8.4</v>
@@ -58658,19 +58628,19 @@
         <v>8.6</v>
       </c>
       <c r="BB282">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BC282">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="BD282">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BE282">
         <v>1000</v>
       </c>
       <c r="BF282" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="BG282">
         <v>474678</v>
@@ -58682,16 +58652,16 @@
         <v>58805</v>
       </c>
       <c r="BJ282" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="BK282" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="BL282" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="BM282" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -58714,10 +58684,10 @@
         <v>2.86</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H283">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I283">
         <v>2.56</v>
@@ -58750,7 +58720,7 @@
         <v>2.48</v>
       </c>
       <c r="S283">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T283">
         <v>15.5</v>
@@ -58780,7 +58750,7 @@
         <v>12</v>
       </c>
       <c r="AC283">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AD283">
         <v>7.8</v>
@@ -58861,13 +58831,13 @@
         <v>980</v>
       </c>
       <c r="BD283">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="BE283">
         <v>980</v>
       </c>
       <c r="BF283" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="BG283">
         <v>10002706</v>
@@ -58879,16 +58849,16 @@
         <v>58805</v>
       </c>
       <c r="BJ283" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="BK283" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="BL283" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="BM283" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -58911,19 +58881,19 @@
         <v>1.81</v>
       </c>
       <c r="G284">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H284">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I284">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J284">
         <v>3.9</v>
       </c>
       <c r="K284">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L284">
         <v>2.02</v>
@@ -58950,55 +58920,55 @@
         <v>2.18</v>
       </c>
       <c r="T284">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U284">
+        <v>14.5</v>
+      </c>
+      <c r="V284">
         <v>15.5</v>
       </c>
-      <c r="V284">
-        <v>15</v>
-      </c>
       <c r="W284">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X284">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y284">
         <v>38</v>
       </c>
       <c r="Z284">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA284">
         <v>110</v>
       </c>
       <c r="AB284">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC284">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD284">
         <v>8</v>
       </c>
       <c r="AE284">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF284">
         <v>18</v>
       </c>
       <c r="AG284">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH284">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI284">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ284">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK284">
         <v>11</v>
@@ -59007,64 +58977,64 @@
         <v>9.4</v>
       </c>
       <c r="AM284">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN284">
         <v>18.5</v>
       </c>
       <c r="AO284">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP284">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ284">
         <v>70</v>
       </c>
       <c r="AR284">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AS284">
         <v>19</v>
       </c>
       <c r="AT284">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AU284">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AV284">
         <v>32</v>
       </c>
       <c r="AW284">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX284">
         <v>40</v>
       </c>
       <c r="AY284">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AZ284">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BA284">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BB284">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BC284">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD284">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BE284">
         <v>1000</v>
       </c>
       <c r="BF284" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="BG284">
         <v>9280784</v>
@@ -59076,16 +59046,16 @@
         <v>58805</v>
       </c>
       <c r="BJ284" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="BK284" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="BL284" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="BM284" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -59105,16 +59075,16 @@
         <v>778</v>
       </c>
       <c r="F285">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G285">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H285">
+        <v>2.36</v>
+      </c>
+      <c r="I285">
         <v>2.38</v>
-      </c>
-      <c r="I285">
-        <v>2.42</v>
       </c>
       <c r="J285">
         <v>4</v>
@@ -59123,7 +59093,7 @@
         <v>4.2</v>
       </c>
       <c r="L285">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="M285">
         <v>2.76</v>
@@ -59138,10 +59108,10 @@
         <v>1.52</v>
       </c>
       <c r="Q285">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R285">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="S285">
         <v>2.92</v>
@@ -59156,25 +59126,25 @@
         <v>15</v>
       </c>
       <c r="W285">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X285">
         <v>17.5</v>
       </c>
       <c r="Y285">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z285">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA285">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB285">
         <v>16.5</v>
       </c>
       <c r="AC285">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD285">
         <v>9.199999999999999</v>
@@ -59195,10 +59165,10 @@
         <v>21</v>
       </c>
       <c r="AJ285">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK285">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL285">
         <v>12</v>
@@ -59219,16 +59189,16 @@
         <v>27</v>
       </c>
       <c r="AR285">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AS285">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT285">
         <v>24</v>
       </c>
       <c r="AU285">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV285">
         <v>27</v>
@@ -59243,25 +59213,25 @@
         <v>55</v>
       </c>
       <c r="AZ285">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA285">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BB285">
         <v>10.5</v>
       </c>
       <c r="BC285">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BD285">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BE285">
         <v>980</v>
       </c>
       <c r="BF285" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="BG285">
         <v>171907</v>
@@ -59273,16 +59243,16 @@
         <v>58805</v>
       </c>
       <c r="BJ285" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="BK285" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="BL285" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="BM285" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -59314,10 +59284,10 @@
         <v>5.9</v>
       </c>
       <c r="J286">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K286">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L286">
         <v>1.99</v>
@@ -59458,7 +59428,7 @@
         <v>1000</v>
       </c>
       <c r="BF286" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="BG286">
         <v>2362970</v>
@@ -59470,16 +59440,16 @@
         <v>58805</v>
       </c>
       <c r="BJ286" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="BK286" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="BL286" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="BM286" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -59499,7 +59469,7 @@
         <v>780</v>
       </c>
       <c r="F287">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G287">
         <v>2.36</v>
@@ -59514,7 +59484,7 @@
         <v>3.6</v>
       </c>
       <c r="K287">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L287">
         <v>2.08</v>
@@ -59631,19 +59601,19 @@
         <v>36</v>
       </c>
       <c r="AX287">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AY287">
         <v>95</v>
       </c>
       <c r="AZ287">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="BA287">
         <v>17.5</v>
       </c>
       <c r="BB287">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC287">
         <v>32</v>
@@ -59655,7 +59625,7 @@
         <v>980</v>
       </c>
       <c r="BF287" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="BG287">
         <v>436099</v>
@@ -59667,16 +59637,16 @@
         <v>58805</v>
       </c>
       <c r="BJ287" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="BK287" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BL287" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="BM287" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -59696,7 +59666,7 @@
         <v>781</v>
       </c>
       <c r="F288">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G288">
         <v>1.56</v>
@@ -59711,7 +59681,7 @@
         <v>4.5</v>
       </c>
       <c r="K288">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L288">
         <v>2.12</v>
@@ -59726,7 +59696,7 @@
         <v>1.9</v>
       </c>
       <c r="P288">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q288">
         <v>2.08</v>
@@ -59735,7 +59705,7 @@
         <v>1.94</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T288">
         <v>14.5</v>
@@ -59768,16 +59738,16 @@
         <v>8.4</v>
       </c>
       <c r="AD288">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AE288">
         <v>10</v>
       </c>
       <c r="AF288">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG288">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH288">
         <v>90</v>
@@ -59837,22 +59807,22 @@
         <v>7.2</v>
       </c>
       <c r="BA288">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BB288">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BC288">
         <v>140</v>
       </c>
       <c r="BD288">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BE288">
         <v>1000</v>
       </c>
       <c r="BF288" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="BG288">
         <v>5640226</v>
@@ -59864,16 +59834,16 @@
         <v>58805</v>
       </c>
       <c r="BJ288" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="BK288" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="BL288" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="BM288" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -59896,10 +59866,10 @@
         <v>1.79</v>
       </c>
       <c r="G289">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H289">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I289">
         <v>5</v>
@@ -59911,16 +59881,16 @@
         <v>4.2</v>
       </c>
       <c r="L289">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="M289">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="N289">
         <v>1.74</v>
       </c>
       <c r="O289">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P289">
         <v>1.72</v>
@@ -59959,7 +59929,7 @@
         <v>110</v>
       </c>
       <c r="AB289">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC289">
         <v>11</v>
@@ -60037,19 +60007,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BB289">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BC289">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD289">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BE289">
         <v>980</v>
       </c>
       <c r="BF289" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BG289">
         <v>10962520</v>
@@ -60061,16 +60031,16 @@
         <v>58805</v>
       </c>
       <c r="BJ289" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="BK289" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="BL289" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="BM289" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="290" spans="1:65">
@@ -60120,7 +60090,7 @@
         <v>1.83</v>
       </c>
       <c r="P290">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q290">
         <v>1.81</v>
@@ -60240,13 +60210,13 @@
         <v>48</v>
       </c>
       <c r="BD290">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="BE290">
         <v>980</v>
       </c>
       <c r="BF290" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BG290">
         <v>4589333</v>
@@ -60258,16 +60228,16 @@
         <v>58805</v>
       </c>
       <c r="BJ290" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="BK290" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="BL290" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="BM290" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:65">
@@ -60290,7 +60260,7 @@
         <v>1.62</v>
       </c>
       <c r="G291">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H291">
         <v>5.8</v>
@@ -60308,7 +60278,7 @@
         <v>2.4</v>
       </c>
       <c r="M291">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="N291">
         <v>1.7</v>
@@ -60317,7 +60287,7 @@
         <v>1.71</v>
       </c>
       <c r="P291">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q291">
         <v>1.84</v>
@@ -60422,7 +60392,7 @@
         <v>36</v>
       </c>
       <c r="AY291">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ291">
         <v>7</v>
@@ -60443,7 +60413,7 @@
         <v>980</v>
       </c>
       <c r="BF291" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="BG291">
         <v>171903</v>
@@ -60455,16 +60425,16 @@
         <v>58805</v>
       </c>
       <c r="BJ291" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="BK291" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="BL291" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="BM291" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -60484,13 +60454,13 @@
         <v>785</v>
       </c>
       <c r="F292">
+        <v>1.94</v>
+      </c>
+      <c r="G292">
         <v>1.95</v>
       </c>
-      <c r="G292">
-        <v>1.97</v>
-      </c>
       <c r="H292">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I292">
         <v>4.5</v>
@@ -60502,7 +60472,7 @@
         <v>3.9</v>
       </c>
       <c r="L292">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="M292">
         <v>2</v>
@@ -60511,10 +60481,10 @@
         <v>2</v>
       </c>
       <c r="O292">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P292">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q292">
         <v>1.97</v>
@@ -60523,7 +60493,7 @@
         <v>2.04</v>
       </c>
       <c r="S292">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T292">
         <v>12.5</v>
@@ -60538,13 +60508,13 @@
         <v>16</v>
       </c>
       <c r="X292">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y292">
         <v>34</v>
       </c>
       <c r="Z292">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA292">
         <v>100</v>
@@ -60562,7 +60532,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF292">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG292">
         <v>18</v>
@@ -60628,7 +60598,7 @@
         <v>13.5</v>
       </c>
       <c r="BB292">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC292">
         <v>70</v>
@@ -60640,7 +60610,7 @@
         <v>1000</v>
       </c>
       <c r="BF292" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="BG292">
         <v>198139</v>
@@ -60652,16 +60622,16 @@
         <v>58805</v>
       </c>
       <c r="BJ292" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="BK292" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="BL292" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="BM292" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -60681,7 +60651,7 @@
         <v>786</v>
       </c>
       <c r="F293">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G293">
         <v>2.5</v>
@@ -60690,10 +60660,10 @@
         <v>3.45</v>
       </c>
       <c r="I293">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J293">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K293">
         <v>3.35</v>
@@ -60741,19 +60711,19 @@
         <v>26</v>
       </c>
       <c r="Z293">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA293">
         <v>80</v>
       </c>
       <c r="AB293">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC293">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD293">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE293">
         <v>8.199999999999999</v>
@@ -60765,79 +60735,79 @@
         <v>17.5</v>
       </c>
       <c r="AH293">
-        <v>2.98</v>
+        <v>6</v>
       </c>
       <c r="AI293">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ293">
         <v>10</v>
       </c>
       <c r="AK293">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL293">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AM293">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN293">
         <v>18</v>
       </c>
       <c r="AO293">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AP293">
-        <v>1.58</v>
+        <v>6</v>
       </c>
       <c r="AQ293">
         <v>70</v>
       </c>
       <c r="AR293">
+        <v>5.6</v>
+      </c>
+      <c r="AS293">
+        <v>36</v>
+      </c>
+      <c r="AT293">
+        <v>6.4</v>
+      </c>
+      <c r="AU293">
+        <v>34</v>
+      </c>
+      <c r="AV293">
         <v>6</v>
       </c>
-      <c r="AS293">
-        <v>1000</v>
-      </c>
-      <c r="AT293">
-        <v>6.6</v>
-      </c>
-      <c r="AU293">
-        <v>1000</v>
-      </c>
-      <c r="AV293">
-        <v>1.62</v>
-      </c>
       <c r="AW293">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX293">
-        <v>1.62</v>
+        <v>6.4</v>
       </c>
       <c r="AY293">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AZ293">
-        <v>1.27</v>
+        <v>5.4</v>
       </c>
       <c r="BA293">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="BB293">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="BC293">
         <v>70</v>
       </c>
       <c r="BD293">
-        <v>1.27</v>
+        <v>6.6</v>
       </c>
       <c r="BE293">
         <v>1000</v>
       </c>
       <c r="BF293" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="BG293">
         <v>10632891</v>
@@ -60849,16 +60819,16 @@
         <v>58805</v>
       </c>
       <c r="BJ293" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="BK293" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="BL293" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="BM293" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -60878,25 +60848,25 @@
         <v>787</v>
       </c>
       <c r="F294">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G294">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="H294">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I294">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="J294">
         <v>3.5</v>
       </c>
       <c r="K294">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L294">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M294">
         <v>1.86</v>
@@ -60905,10 +60875,10 @@
         <v>2.16</v>
       </c>
       <c r="O294">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="P294">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q294">
         <v>2.2</v>
@@ -60917,7 +60887,7 @@
         <v>1.84</v>
       </c>
       <c r="S294">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T294">
         <v>9.800000000000001</v>
@@ -60932,22 +60902,22 @@
         <v>17.5</v>
       </c>
       <c r="X294">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y294">
         <v>42</v>
       </c>
       <c r="Z294">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AA294">
         <v>980</v>
       </c>
       <c r="AB294">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC294">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD294">
         <v>7.2</v>
@@ -60962,16 +60932,16 @@
         <v>980</v>
       </c>
       <c r="AH294">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AI294">
         <v>980</v>
       </c>
       <c r="AJ294">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK294">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL294">
         <v>9.4</v>
@@ -60986,16 +60956,16 @@
         <v>27</v>
       </c>
       <c r="AP294">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AQ294">
         <v>980</v>
       </c>
       <c r="AR294">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS294">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT294">
         <v>18.5</v>
@@ -61004,13 +60974,13 @@
         <v>26</v>
       </c>
       <c r="AV294">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AW294">
         <v>980</v>
       </c>
       <c r="AX294">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY294">
         <v>980</v>
@@ -61019,22 +60989,22 @@
         <v>3.9</v>
       </c>
       <c r="BA294">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB294">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BC294">
         <v>980</v>
       </c>
       <c r="BD294">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BE294">
         <v>1000</v>
       </c>
       <c r="BF294" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="BG294">
         <v>2844791</v>
@@ -61046,16 +61016,16 @@
         <v>58805</v>
       </c>
       <c r="BJ294" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="BK294" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="BL294" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="BM294" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -61075,16 +61045,16 @@
         <v>788</v>
       </c>
       <c r="F295">
+        <v>2.6</v>
+      </c>
+      <c r="G295">
         <v>2.62</v>
       </c>
-      <c r="G295">
-        <v>2.64</v>
-      </c>
       <c r="H295">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I295">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J295">
         <v>3.95</v>
@@ -61165,7 +61135,7 @@
         <v>25</v>
       </c>
       <c r="AJ295">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK295">
         <v>21</v>
@@ -61180,7 +61150,7 @@
         <v>13.5</v>
       </c>
       <c r="AO295">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP295">
         <v>27</v>
@@ -61198,7 +61168,7 @@
         <v>21</v>
       </c>
       <c r="AU295">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV295">
         <v>26</v>
@@ -61213,16 +61183,16 @@
         <v>60</v>
       </c>
       <c r="AZ295">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA295">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB295">
         <v>13.5</v>
       </c>
       <c r="BC295">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BD295">
         <v>17.5</v>
@@ -61231,7 +61201,7 @@
         <v>980</v>
       </c>
       <c r="BF295" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="BG295">
         <v>226469</v>
@@ -61243,16 +61213,16 @@
         <v>58805</v>
       </c>
       <c r="BJ295" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="BK295" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="BL295" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="BM295" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61272,22 +61242,22 @@
         <v>789</v>
       </c>
       <c r="F296">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G296">
         <v>1.97</v>
       </c>
       <c r="H296">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I296">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J296">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K296">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L296">
         <v>2.08</v>
@@ -61296,7 +61266,7 @@
         <v>2.14</v>
       </c>
       <c r="N296">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O296">
         <v>1.92</v>
@@ -61317,70 +61287,70 @@
         <v>14</v>
       </c>
       <c r="U296">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="V296">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W296">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X296">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y296">
         <v>32</v>
       </c>
       <c r="Z296">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AA296">
         <v>90</v>
       </c>
       <c r="AB296">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC296">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD296">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE296">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF296">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG296">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH296">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AI296">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ296">
         <v>11</v>
       </c>
       <c r="AK296">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL296">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM296">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN296">
         <v>16.5</v>
       </c>
       <c r="AO296">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP296">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AQ296">
         <v>60</v>
@@ -61395,10 +61365,10 @@
         <v>17.5</v>
       </c>
       <c r="AU296">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV296">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW296">
         <v>34</v>
@@ -61407,28 +61377,28 @@
         <v>36</v>
       </c>
       <c r="AY296">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ296">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BA296">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB296">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BC296">
         <v>48</v>
       </c>
       <c r="BD296">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="BE296">
         <v>980</v>
       </c>
       <c r="BF296" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="BG296">
         <v>17790476</v>
@@ -61440,16 +61410,16 @@
         <v>58805</v>
       </c>
       <c r="BJ296" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="BK296" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="BL296" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="BM296" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -61472,19 +61442,19 @@
         <v>2.86</v>
       </c>
       <c r="G297">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H297">
         <v>2.82</v>
       </c>
       <c r="I297">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J297">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K297">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L297">
         <v>1.7</v>
@@ -61625,7 +61595,7 @@
         <v>1000</v>
       </c>
       <c r="BF297" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="BG297">
         <v>2937353</v>
@@ -61637,16 +61607,16 @@
         <v>58805</v>
       </c>
       <c r="BJ297" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="BK297" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="BL297" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="BM297" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -61675,7 +61645,7 @@
         <v>4.1</v>
       </c>
       <c r="I298">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J298">
         <v>3.95</v>
@@ -61684,7 +61654,7 @@
         <v>4.1</v>
       </c>
       <c r="L298">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M298">
         <v>2.54</v>
@@ -61699,22 +61669,22 @@
         <v>1.62</v>
       </c>
       <c r="Q298">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R298">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="S298">
         <v>2.62</v>
       </c>
       <c r="T298">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U298">
         <v>21</v>
       </c>
       <c r="V298">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="W298">
         <v>21</v>
@@ -61747,7 +61717,7 @@
         <v>14.5</v>
       </c>
       <c r="AG298">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH298">
         <v>34</v>
@@ -61816,13 +61786,13 @@
         <v>34</v>
       </c>
       <c r="BD298">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BE298">
         <v>980</v>
       </c>
       <c r="BF298" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="BG298">
         <v>7533070</v>
@@ -61834,16 +61804,16 @@
         <v>58805</v>
       </c>
       <c r="BJ298" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="BK298" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="BL298" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="BM298" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -61863,163 +61833,163 @@
         <v>792</v>
       </c>
       <c r="F299">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G299">
         <v>1.58</v>
       </c>
       <c r="H299">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I299">
         <v>7.2</v>
       </c>
       <c r="J299">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K299">
         <v>4.9</v>
       </c>
       <c r="L299">
+        <v>2.16</v>
+      </c>
+      <c r="M299">
+        <v>2.34</v>
+      </c>
+      <c r="N299">
+        <v>1.75</v>
+      </c>
+      <c r="O299">
+        <v>1.84</v>
+      </c>
+      <c r="P299">
+        <v>1.85</v>
+      </c>
+      <c r="Q299">
+        <v>1.97</v>
+      </c>
+      <c r="R299">
+        <v>2.04</v>
+      </c>
+      <c r="S299">
         <v>2.18</v>
-      </c>
-      <c r="M299">
-        <v>2.3</v>
-      </c>
-      <c r="N299">
-        <v>1.78</v>
-      </c>
-      <c r="O299">
-        <v>1.85</v>
-      </c>
-      <c r="P299">
-        <v>1.9</v>
-      </c>
-      <c r="Q299">
-        <v>1.99</v>
-      </c>
-      <c r="R299">
-        <v>2.02</v>
-      </c>
-      <c r="S299">
-        <v>2.12</v>
       </c>
       <c r="T299">
         <v>15</v>
       </c>
       <c r="U299">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V299">
-        <v>19</v>
+        <v>1.63</v>
       </c>
       <c r="W299">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X299">
-        <v>7.6</v>
+        <v>1.54</v>
       </c>
       <c r="Y299">
         <v>60</v>
       </c>
       <c r="Z299">
-        <v>8.199999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="AA299">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB299">
         <v>8.4</v>
       </c>
       <c r="AC299">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD299">
         <v>9.4</v>
       </c>
       <c r="AE299">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF299">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG299">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH299">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="AI299">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ299">
         <v>8.6</v>
       </c>
       <c r="AK299">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AL299">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM299">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AN299">
-        <v>20</v>
+        <v>1.58</v>
       </c>
       <c r="AO299">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AP299">
-        <v>7.8</v>
+        <v>1.74</v>
       </c>
       <c r="AQ299">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AR299">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS299">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AT299">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AU299">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AV299">
-        <v>7</v>
+        <v>1.51</v>
       </c>
       <c r="AW299">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AX299">
-        <v>8.199999999999999</v>
+        <v>1.58</v>
       </c>
       <c r="AY299">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ299">
-        <v>4.1</v>
+        <v>1.32</v>
       </c>
       <c r="BA299">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BB299">
-        <v>23</v>
+        <v>6.6</v>
       </c>
       <c r="BC299">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD299">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BE299">
         <v>1000</v>
       </c>
       <c r="BF299" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="BG299">
         <v>328916</v>
@@ -62031,16 +62001,16 @@
         <v>58805</v>
       </c>
       <c r="BJ299" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="BK299" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="BL299" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="BM299" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -62063,10 +62033,10 @@
         <v>2.66</v>
       </c>
       <c r="G300">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H300">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I300">
         <v>2.82</v>
@@ -62078,7 +62048,7 @@
         <v>3.9</v>
       </c>
       <c r="L300">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="M300">
         <v>2.32</v>
@@ -62090,16 +62060,16 @@
         <v>1.85</v>
       </c>
       <c r="P300">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q300">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R300">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S300">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T300">
         <v>14</v>
@@ -62120,7 +62090,7 @@
         <v>21</v>
       </c>
       <c r="Z300">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA300">
         <v>44</v>
@@ -62144,7 +62114,7 @@
         <v>13.5</v>
       </c>
       <c r="AH300">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI300">
         <v>29</v>
@@ -62168,13 +62138,13 @@
         <v>17.5</v>
       </c>
       <c r="AP300">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ300">
         <v>40</v>
       </c>
       <c r="AR300">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS300">
         <v>42</v>
@@ -62216,7 +62186,7 @@
         <v>600</v>
       </c>
       <c r="BF300" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="BG300">
         <v>230914</v>
@@ -62228,16 +62198,16 @@
         <v>58805</v>
       </c>
       <c r="BJ300" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="BK300" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="BL300" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="BM300" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62269,22 +62239,22 @@
         <v>6.2</v>
       </c>
       <c r="J301">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K301">
         <v>4.7</v>
       </c>
       <c r="L301">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M301">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="N301">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O301">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P301">
         <v>1.68</v>
@@ -62413,7 +62383,7 @@
         <v>980</v>
       </c>
       <c r="BF301" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BG301">
         <v>328954</v>
@@ -62425,16 +62395,16 @@
         <v>58805</v>
       </c>
       <c r="BJ301" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="BK301" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="BL301" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="BM301" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -62454,154 +62424,154 @@
         <v>795</v>
       </c>
       <c r="F302">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="G302">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="H302">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I302">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J302">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="K302">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L302">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="M302">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="N302">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O302">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P302">
+        <v>1.69</v>
+      </c>
+      <c r="Q302">
         <v>1.75</v>
       </c>
-      <c r="Q302">
-        <v>1.8</v>
-      </c>
       <c r="R302">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="S302">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="T302">
         <v>23</v>
       </c>
       <c r="U302">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V302">
         <v>29</v>
       </c>
       <c r="W302">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X302">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y302">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z302">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA302">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AB302">
         <v>11</v>
       </c>
       <c r="AC302">
+        <v>13</v>
+      </c>
+      <c r="AD302">
+        <v>11</v>
+      </c>
+      <c r="AE302">
         <v>12.5</v>
       </c>
-      <c r="AD302">
+      <c r="AF302">
+        <v>24</v>
+      </c>
+      <c r="AG302">
+        <v>29</v>
+      </c>
+      <c r="AH302">
+        <v>50</v>
+      </c>
+      <c r="AI302">
+        <v>80</v>
+      </c>
+      <c r="AJ302">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK302">
         <v>11.5</v>
       </c>
-      <c r="AE302">
-        <v>13</v>
-      </c>
-      <c r="AF302">
-        <v>26</v>
-      </c>
-      <c r="AG302">
-        <v>32</v>
-      </c>
-      <c r="AH302">
-        <v>65</v>
-      </c>
-      <c r="AI302">
-        <v>95</v>
-      </c>
-      <c r="AJ302">
-        <v>9.6</v>
-      </c>
-      <c r="AK302">
-        <v>10.5</v>
-      </c>
       <c r="AL302">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM302">
         <v>10.5</v>
       </c>
       <c r="AN302">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO302">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP302">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ302">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AR302">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AS302">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT302">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AU302">
         <v>14</v>
       </c>
       <c r="AV302">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW302">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX302">
         <v>55</v>
       </c>
       <c r="AY302">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AZ302">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BA302">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BB302">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BC302">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BD302">
         <v>60</v>
@@ -62610,7 +62580,7 @@
         <v>980</v>
       </c>
       <c r="BF302" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="BG302">
         <v>17268707</v>
@@ -62622,16 +62592,16 @@
         <v>58805</v>
       </c>
       <c r="BJ302" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="BK302" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="BL302" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="BM302" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="836">
   <si>
     <t>League</t>
   </si>
@@ -2404,51 +2404,6 @@
     <t>Portland Timbers</t>
   </si>
   <si>
-    <t>33218351</t>
-  </si>
-  <si>
-    <t>33215352</t>
-  </si>
-  <si>
-    <t>33210915</t>
-  </si>
-  <si>
-    <t>33193024</t>
-  </si>
-  <si>
-    <t>33212337</t>
-  </si>
-  <si>
-    <t>33212325</t>
-  </si>
-  <si>
-    <t>33210855</t>
-  </si>
-  <si>
-    <t>33210849</t>
-  </si>
-  <si>
-    <t>33210843</t>
-  </si>
-  <si>
-    <t>33210844</t>
-  </si>
-  <si>
-    <t>33210857</t>
-  </si>
-  <si>
-    <t>33210864</t>
-  </si>
-  <si>
-    <t>33211553</t>
-  </si>
-  <si>
-    <t>33220077</t>
-  </si>
-  <si>
-    <t>33226294</t>
-  </si>
-  <si>
     <t>33212346</t>
   </si>
   <si>
@@ -2473,51 +2428,6 @@
     <t>33210866</t>
   </si>
   <si>
-    <t>1.228046296</t>
-  </si>
-  <si>
-    <t>1.227992813</t>
-  </si>
-  <si>
-    <t>1.227915682</t>
-  </si>
-  <si>
-    <t>1.227620792</t>
-  </si>
-  <si>
-    <t>1.227943831</t>
-  </si>
-  <si>
-    <t>1.227944047</t>
-  </si>
-  <si>
-    <t>1.227920258</t>
-  </si>
-  <si>
-    <t>1.227920487</t>
-  </si>
-  <si>
-    <t>1.227920703</t>
-  </si>
-  <si>
-    <t>1.227920595</t>
-  </si>
-  <si>
-    <t>1.227920042</t>
-  </si>
-  <si>
-    <t>1.227919921</t>
-  </si>
-  <si>
-    <t>1.227923434</t>
-  </si>
-  <si>
-    <t>1.228064740</t>
-  </si>
-  <si>
-    <t>1.228164239</t>
-  </si>
-  <si>
     <t>1.227943615</t>
   </si>
   <si>
@@ -2542,51 +2452,6 @@
     <t>1.227920940</t>
   </si>
   <si>
-    <t>1.228046341</t>
-  </si>
-  <si>
-    <t>1.227992858</t>
-  </si>
-  <si>
-    <t>1.227915727</t>
-  </si>
-  <si>
-    <t>1.227620837</t>
-  </si>
-  <si>
-    <t>1.227943841</t>
-  </si>
-  <si>
-    <t>1.227944057</t>
-  </si>
-  <si>
-    <t>1.227920268</t>
-  </si>
-  <si>
-    <t>1.227920497</t>
-  </si>
-  <si>
-    <t>1.227920713</t>
-  </si>
-  <si>
-    <t>1.227920605</t>
-  </si>
-  <si>
-    <t>1.227920063</t>
-  </si>
-  <si>
-    <t>1.227919931</t>
-  </si>
-  <si>
-    <t>1.227923444</t>
-  </si>
-  <si>
-    <t>1.228064785</t>
-  </si>
-  <si>
-    <t>1.228164242</t>
-  </si>
-  <si>
     <t>1.227943625</t>
   </si>
   <si>
@@ -2611,51 +2476,6 @@
     <t>1.227920950</t>
   </si>
   <si>
-    <t>1.228046380</t>
-  </si>
-  <si>
-    <t>1.227992897</t>
-  </si>
-  <si>
-    <t>1.227915766</t>
-  </si>
-  <si>
-    <t>1.227620876</t>
-  </si>
-  <si>
-    <t>1.227943830</t>
-  </si>
-  <si>
-    <t>1.227944046</t>
-  </si>
-  <si>
-    <t>1.227920257</t>
-  </si>
-  <si>
-    <t>1.227920486</t>
-  </si>
-  <si>
-    <t>1.227920702</t>
-  </si>
-  <si>
-    <t>1.227920594</t>
-  </si>
-  <si>
-    <t>1.227920040</t>
-  </si>
-  <si>
-    <t>1.227919920</t>
-  </si>
-  <si>
-    <t>1.227923433</t>
-  </si>
-  <si>
-    <t>1.228064824</t>
-  </si>
-  <si>
-    <t>1.228164286</t>
-  </si>
-  <si>
     <t>1.227943614</t>
   </si>
   <si>
@@ -2678,51 +2498,6 @@
   </si>
   <si>
     <t>1.227920939</t>
-  </si>
-  <si>
-    <t>1.228046305</t>
-  </si>
-  <si>
-    <t>1.227992822</t>
-  </si>
-  <si>
-    <t>1.227915691</t>
-  </si>
-  <si>
-    <t>1.227620801</t>
-  </si>
-  <si>
-    <t>1.227943840</t>
-  </si>
-  <si>
-    <t>1.227944056</t>
-  </si>
-  <si>
-    <t>1.227920267</t>
-  </si>
-  <si>
-    <t>1.227920496</t>
-  </si>
-  <si>
-    <t>1.227920712</t>
-  </si>
-  <si>
-    <t>1.227920604</t>
-  </si>
-  <si>
-    <t>1.227920060</t>
-  </si>
-  <si>
-    <t>1.227919930</t>
-  </si>
-  <si>
-    <t>1.227923443</t>
-  </si>
-  <si>
-    <t>1.228064749</t>
-  </si>
-  <si>
-    <t>1.228164287</t>
   </si>
   <si>
     <t>1.227943624</t>
@@ -58245,8 +58020,8 @@
       <c r="BE280">
         <v>1000</v>
       </c>
-      <c r="BF280" t="s">
-        <v>796</v>
+      <c r="BF280">
+        <v>33218351</v>
       </c>
       <c r="BG280">
         <v>23018379</v>
@@ -58257,17 +58032,17 @@
       <c r="BI280">
         <v>58805</v>
       </c>
-      <c r="BJ280" t="s">
-        <v>819</v>
-      </c>
-      <c r="BK280" t="s">
-        <v>842</v>
-      </c>
-      <c r="BL280" t="s">
-        <v>865</v>
-      </c>
-      <c r="BM280" t="s">
-        <v>888</v>
+      <c r="BJ280">
+        <v>1.228046296</v>
+      </c>
+      <c r="BK280">
+        <v>1.228046341</v>
+      </c>
+      <c r="BL280">
+        <v>1.22804638</v>
+      </c>
+      <c r="BM280">
+        <v>1.228046305</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -58442,8 +58217,8 @@
       <c r="BE281">
         <v>1000</v>
       </c>
-      <c r="BF281" t="s">
-        <v>797</v>
+      <c r="BF281">
+        <v>33215352</v>
       </c>
       <c r="BG281">
         <v>27767097</v>
@@ -58454,17 +58229,17 @@
       <c r="BI281">
         <v>58805</v>
       </c>
-      <c r="BJ281" t="s">
-        <v>820</v>
-      </c>
-      <c r="BK281" t="s">
-        <v>843</v>
-      </c>
-      <c r="BL281" t="s">
-        <v>866</v>
-      </c>
-      <c r="BM281" t="s">
-        <v>889</v>
+      <c r="BJ281">
+        <v>1.227992813</v>
+      </c>
+      <c r="BK281">
+        <v>1.227992858</v>
+      </c>
+      <c r="BL281">
+        <v>1.227992897</v>
+      </c>
+      <c r="BM281">
+        <v>1.227992822</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -58639,8 +58414,8 @@
       <c r="BE282">
         <v>1000</v>
       </c>
-      <c r="BF282" t="s">
-        <v>798</v>
+      <c r="BF282">
+        <v>33210915</v>
       </c>
       <c r="BG282">
         <v>474678</v>
@@ -58651,17 +58426,17 @@
       <c r="BI282">
         <v>58805</v>
       </c>
-      <c r="BJ282" t="s">
-        <v>821</v>
-      </c>
-      <c r="BK282" t="s">
-        <v>844</v>
-      </c>
-      <c r="BL282" t="s">
-        <v>867</v>
-      </c>
-      <c r="BM282" t="s">
-        <v>890</v>
+      <c r="BJ282">
+        <v>1.227915682</v>
+      </c>
+      <c r="BK282">
+        <v>1.227915727</v>
+      </c>
+      <c r="BL282">
+        <v>1.227915766</v>
+      </c>
+      <c r="BM282">
+        <v>1.227915691</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -58836,8 +58611,8 @@
       <c r="BE283">
         <v>980</v>
       </c>
-      <c r="BF283" t="s">
-        <v>799</v>
+      <c r="BF283">
+        <v>33193024</v>
       </c>
       <c r="BG283">
         <v>10002706</v>
@@ -58848,17 +58623,17 @@
       <c r="BI283">
         <v>58805</v>
       </c>
-      <c r="BJ283" t="s">
-        <v>822</v>
-      </c>
-      <c r="BK283" t="s">
-        <v>845</v>
-      </c>
-      <c r="BL283" t="s">
-        <v>868</v>
-      </c>
-      <c r="BM283" t="s">
-        <v>891</v>
+      <c r="BJ283">
+        <v>1.227620792</v>
+      </c>
+      <c r="BK283">
+        <v>1.227620837</v>
+      </c>
+      <c r="BL283">
+        <v>1.227620876</v>
+      </c>
+      <c r="BM283">
+        <v>1.227620801</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -59033,8 +58808,8 @@
       <c r="BE284">
         <v>1000</v>
       </c>
-      <c r="BF284" t="s">
-        <v>800</v>
+      <c r="BF284">
+        <v>33212337</v>
       </c>
       <c r="BG284">
         <v>9280784</v>
@@ -59045,17 +58820,17 @@
       <c r="BI284">
         <v>58805</v>
       </c>
-      <c r="BJ284" t="s">
-        <v>823</v>
-      </c>
-      <c r="BK284" t="s">
-        <v>846</v>
-      </c>
-      <c r="BL284" t="s">
-        <v>869</v>
-      </c>
-      <c r="BM284" t="s">
-        <v>892</v>
+      <c r="BJ284">
+        <v>1.227943831</v>
+      </c>
+      <c r="BK284">
+        <v>1.227943841</v>
+      </c>
+      <c r="BL284">
+        <v>1.22794383</v>
+      </c>
+      <c r="BM284">
+        <v>1.22794384</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -59230,8 +59005,8 @@
       <c r="BE285">
         <v>980</v>
       </c>
-      <c r="BF285" t="s">
-        <v>801</v>
+      <c r="BF285">
+        <v>33212325</v>
       </c>
       <c r="BG285">
         <v>171907</v>
@@ -59242,17 +59017,17 @@
       <c r="BI285">
         <v>58805</v>
       </c>
-      <c r="BJ285" t="s">
-        <v>824</v>
-      </c>
-      <c r="BK285" t="s">
-        <v>847</v>
-      </c>
-      <c r="BL285" t="s">
-        <v>870</v>
-      </c>
-      <c r="BM285" t="s">
-        <v>893</v>
+      <c r="BJ285">
+        <v>1.227944047</v>
+      </c>
+      <c r="BK285">
+        <v>1.227944057</v>
+      </c>
+      <c r="BL285">
+        <v>1.227944046</v>
+      </c>
+      <c r="BM285">
+        <v>1.227944056</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -59427,8 +59202,8 @@
       <c r="BE286">
         <v>1000</v>
       </c>
-      <c r="BF286" t="s">
-        <v>802</v>
+      <c r="BF286">
+        <v>33210855</v>
       </c>
       <c r="BG286">
         <v>2362970</v>
@@ -59439,17 +59214,17 @@
       <c r="BI286">
         <v>58805</v>
       </c>
-      <c r="BJ286" t="s">
-        <v>825</v>
-      </c>
-      <c r="BK286" t="s">
-        <v>848</v>
-      </c>
-      <c r="BL286" t="s">
-        <v>871</v>
-      </c>
-      <c r="BM286" t="s">
-        <v>894</v>
+      <c r="BJ286">
+        <v>1.227920258</v>
+      </c>
+      <c r="BK286">
+        <v>1.227920268</v>
+      </c>
+      <c r="BL286">
+        <v>1.227920257</v>
+      </c>
+      <c r="BM286">
+        <v>1.227920267</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -59624,8 +59399,8 @@
       <c r="BE287">
         <v>980</v>
       </c>
-      <c r="BF287" t="s">
-        <v>803</v>
+      <c r="BF287">
+        <v>33210849</v>
       </c>
       <c r="BG287">
         <v>436099</v>
@@ -59636,17 +59411,17 @@
       <c r="BI287">
         <v>58805</v>
       </c>
-      <c r="BJ287" t="s">
-        <v>826</v>
-      </c>
-      <c r="BK287" t="s">
-        <v>849</v>
-      </c>
-      <c r="BL287" t="s">
-        <v>872</v>
-      </c>
-      <c r="BM287" t="s">
-        <v>895</v>
+      <c r="BJ287">
+        <v>1.227920487</v>
+      </c>
+      <c r="BK287">
+        <v>1.227920497</v>
+      </c>
+      <c r="BL287">
+        <v>1.227920486</v>
+      </c>
+      <c r="BM287">
+        <v>1.227920496</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -59821,8 +59596,8 @@
       <c r="BE288">
         <v>1000</v>
       </c>
-      <c r="BF288" t="s">
-        <v>804</v>
+      <c r="BF288">
+        <v>33210843</v>
       </c>
       <c r="BG288">
         <v>5640226</v>
@@ -59833,17 +59608,17 @@
       <c r="BI288">
         <v>58805</v>
       </c>
-      <c r="BJ288" t="s">
-        <v>827</v>
-      </c>
-      <c r="BK288" t="s">
-        <v>850</v>
-      </c>
-      <c r="BL288" t="s">
-        <v>873</v>
-      </c>
-      <c r="BM288" t="s">
-        <v>896</v>
+      <c r="BJ288">
+        <v>1.227920703</v>
+      </c>
+      <c r="BK288">
+        <v>1.227920713</v>
+      </c>
+      <c r="BL288">
+        <v>1.227920702</v>
+      </c>
+      <c r="BM288">
+        <v>1.227920712</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -60018,8 +59793,8 @@
       <c r="BE289">
         <v>980</v>
       </c>
-      <c r="BF289" t="s">
-        <v>805</v>
+      <c r="BF289">
+        <v>33210844</v>
       </c>
       <c r="BG289">
         <v>10962520</v>
@@ -60030,17 +59805,17 @@
       <c r="BI289">
         <v>58805</v>
       </c>
-      <c r="BJ289" t="s">
-        <v>828</v>
-      </c>
-      <c r="BK289" t="s">
-        <v>851</v>
-      </c>
-      <c r="BL289" t="s">
-        <v>874</v>
-      </c>
-      <c r="BM289" t="s">
-        <v>897</v>
+      <c r="BJ289">
+        <v>1.227920595</v>
+      </c>
+      <c r="BK289">
+        <v>1.227920605</v>
+      </c>
+      <c r="BL289">
+        <v>1.227920594</v>
+      </c>
+      <c r="BM289">
+        <v>1.227920604</v>
       </c>
     </row>
     <row r="290" spans="1:65">
@@ -60215,8 +59990,8 @@
       <c r="BE290">
         <v>980</v>
       </c>
-      <c r="BF290" t="s">
-        <v>806</v>
+      <c r="BF290">
+        <v>33210857</v>
       </c>
       <c r="BG290">
         <v>4589333</v>
@@ -60227,17 +60002,17 @@
       <c r="BI290">
         <v>58805</v>
       </c>
-      <c r="BJ290" t="s">
-        <v>829</v>
-      </c>
-      <c r="BK290" t="s">
-        <v>852</v>
-      </c>
-      <c r="BL290" t="s">
-        <v>875</v>
-      </c>
-      <c r="BM290" t="s">
-        <v>898</v>
+      <c r="BJ290">
+        <v>1.227920042</v>
+      </c>
+      <c r="BK290">
+        <v>1.227920063</v>
+      </c>
+      <c r="BL290">
+        <v>1.22792004</v>
+      </c>
+      <c r="BM290">
+        <v>1.22792006</v>
       </c>
     </row>
     <row r="291" spans="1:65">
@@ -60412,8 +60187,8 @@
       <c r="BE291">
         <v>980</v>
       </c>
-      <c r="BF291" t="s">
-        <v>807</v>
+      <c r="BF291">
+        <v>33210864</v>
       </c>
       <c r="BG291">
         <v>171903</v>
@@ -60424,17 +60199,17 @@
       <c r="BI291">
         <v>58805</v>
       </c>
-      <c r="BJ291" t="s">
-        <v>830</v>
-      </c>
-      <c r="BK291" t="s">
-        <v>853</v>
-      </c>
-      <c r="BL291" t="s">
-        <v>876</v>
-      </c>
-      <c r="BM291" t="s">
-        <v>899</v>
+      <c r="BJ291">
+        <v>1.227919921</v>
+      </c>
+      <c r="BK291">
+        <v>1.227919931</v>
+      </c>
+      <c r="BL291">
+        <v>1.22791992</v>
+      </c>
+      <c r="BM291">
+        <v>1.22791993</v>
       </c>
     </row>
     <row r="292" spans="1:65">
@@ -60609,8 +60384,8 @@
       <c r="BE292">
         <v>1000</v>
       </c>
-      <c r="BF292" t="s">
-        <v>808</v>
+      <c r="BF292">
+        <v>33211553</v>
       </c>
       <c r="BG292">
         <v>198139</v>
@@ -60621,17 +60396,17 @@
       <c r="BI292">
         <v>58805</v>
       </c>
-      <c r="BJ292" t="s">
-        <v>831</v>
-      </c>
-      <c r="BK292" t="s">
-        <v>854</v>
-      </c>
-      <c r="BL292" t="s">
-        <v>877</v>
-      </c>
-      <c r="BM292" t="s">
-        <v>900</v>
+      <c r="BJ292">
+        <v>1.227923434</v>
+      </c>
+      <c r="BK292">
+        <v>1.227923444</v>
+      </c>
+      <c r="BL292">
+        <v>1.227923433</v>
+      </c>
+      <c r="BM292">
+        <v>1.227923443</v>
       </c>
     </row>
     <row r="293" spans="1:65">
@@ -60806,8 +60581,8 @@
       <c r="BE293">
         <v>1000</v>
       </c>
-      <c r="BF293" t="s">
-        <v>809</v>
+      <c r="BF293">
+        <v>33220077</v>
       </c>
       <c r="BG293">
         <v>10632891</v>
@@ -60818,17 +60593,17 @@
       <c r="BI293">
         <v>58805</v>
       </c>
-      <c r="BJ293" t="s">
-        <v>832</v>
-      </c>
-      <c r="BK293" t="s">
-        <v>855</v>
-      </c>
-      <c r="BL293" t="s">
-        <v>878</v>
-      </c>
-      <c r="BM293" t="s">
-        <v>901</v>
+      <c r="BJ293">
+        <v>1.22806474</v>
+      </c>
+      <c r="BK293">
+        <v>1.228064785</v>
+      </c>
+      <c r="BL293">
+        <v>1.228064824</v>
+      </c>
+      <c r="BM293">
+        <v>1.228064749</v>
       </c>
     </row>
     <row r="294" spans="1:65">
@@ -61003,8 +60778,8 @@
       <c r="BE294">
         <v>1000</v>
       </c>
-      <c r="BF294" t="s">
-        <v>810</v>
+      <c r="BF294">
+        <v>33226294</v>
       </c>
       <c r="BG294">
         <v>2844791</v>
@@ -61015,17 +60790,17 @@
       <c r="BI294">
         <v>58805</v>
       </c>
-      <c r="BJ294" t="s">
-        <v>833</v>
-      </c>
-      <c r="BK294" t="s">
-        <v>856</v>
-      </c>
-      <c r="BL294" t="s">
-        <v>879</v>
-      </c>
-      <c r="BM294" t="s">
-        <v>902</v>
+      <c r="BJ294">
+        <v>1.228164239</v>
+      </c>
+      <c r="BK294">
+        <v>1.228164242</v>
+      </c>
+      <c r="BL294">
+        <v>1.228164286</v>
+      </c>
+      <c r="BM294">
+        <v>1.228164287</v>
       </c>
     </row>
     <row r="295" spans="1:65">
@@ -61045,46 +60820,46 @@
         <v>788</v>
       </c>
       <c r="F295">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G295">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H295">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I295">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J295">
         <v>3.95</v>
       </c>
       <c r="K295">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L295">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="M295">
         <v>2.74</v>
       </c>
       <c r="N295">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="O295">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P295">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q295">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R295">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="S295">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="T295">
         <v>19.5</v>
@@ -61096,7 +60871,7 @@
         <v>15</v>
       </c>
       <c r="W295">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X295">
         <v>19.5</v>
@@ -61114,7 +60889,7 @@
         <v>15</v>
       </c>
       <c r="AC295">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD295">
         <v>9</v>
@@ -61129,13 +60904,13 @@
         <v>12.5</v>
       </c>
       <c r="AH295">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI295">
         <v>25</v>
       </c>
       <c r="AJ295">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK295">
         <v>21</v>
@@ -61156,10 +60931,10 @@
         <v>27</v>
       </c>
       <c r="AQ295">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR295">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AS295">
         <v>38</v>
@@ -61177,31 +60952,31 @@
         <v>29</v>
       </c>
       <c r="AX295">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AY295">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ295">
         <v>12.5</v>
       </c>
       <c r="BA295">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BB295">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BC295">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BD295">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="BE295">
         <v>980</v>
       </c>
       <c r="BF295" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="BG295">
         <v>226469</v>
@@ -61213,16 +60988,16 @@
         <v>58805</v>
       </c>
       <c r="BJ295" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="BK295" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="BL295" t="s">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="BM295" t="s">
-        <v>903</v>
+        <v>828</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61242,46 +61017,46 @@
         <v>789</v>
       </c>
       <c r="F296">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G296">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H296">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I296">
         <v>4.6</v>
       </c>
       <c r="J296">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K296">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L296">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M296">
         <v>2.14</v>
       </c>
       <c r="N296">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O296">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P296">
         <v>1.78</v>
       </c>
       <c r="Q296">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R296">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S296">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T296">
         <v>14</v>
@@ -61293,13 +61068,13 @@
         <v>15.5</v>
       </c>
       <c r="W296">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X296">
         <v>29</v>
       </c>
       <c r="Y296">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z296">
         <v>36</v>
@@ -61308,7 +61083,7 @@
         <v>90</v>
       </c>
       <c r="AB296">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC296">
         <v>10</v>
@@ -61323,13 +61098,13 @@
         <v>15.5</v>
       </c>
       <c r="AG296">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH296">
         <v>44</v>
       </c>
       <c r="AI296">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ296">
         <v>11</v>
@@ -61341,7 +61116,7 @@
         <v>9.6</v>
       </c>
       <c r="AM296">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN296">
         <v>16.5</v>
@@ -61383,7 +61158,7 @@
         <v>11</v>
       </c>
       <c r="BA296">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB296">
         <v>30</v>
@@ -61392,13 +61167,13 @@
         <v>48</v>
       </c>
       <c r="BD296">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BE296">
         <v>980</v>
       </c>
       <c r="BF296" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="BG296">
         <v>17790476</v>
@@ -61410,16 +61185,16 @@
         <v>58805</v>
       </c>
       <c r="BJ296" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="BK296" t="s">
-        <v>858</v>
+        <v>813</v>
       </c>
       <c r="BL296" t="s">
-        <v>881</v>
+        <v>821</v>
       </c>
       <c r="BM296" t="s">
-        <v>904</v>
+        <v>829</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -61439,13 +61214,13 @@
         <v>790</v>
       </c>
       <c r="F297">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G297">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H297">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I297">
         <v>2.88</v>
@@ -61454,16 +61229,16 @@
         <v>3.3</v>
       </c>
       <c r="K297">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L297">
         <v>1.7</v>
       </c>
       <c r="M297">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="N297">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O297">
         <v>2.44</v>
@@ -61517,7 +61292,7 @@
         <v>7.2</v>
       </c>
       <c r="AF297">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG297">
         <v>13</v>
@@ -61565,7 +61340,7 @@
         <v>38</v>
       </c>
       <c r="AV297">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AW297">
         <v>60</v>
@@ -61589,13 +61364,13 @@
         <v>36</v>
       </c>
       <c r="BD297">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE297">
         <v>1000</v>
       </c>
       <c r="BF297" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="BG297">
         <v>2937353</v>
@@ -61607,16 +61382,16 @@
         <v>58805</v>
       </c>
       <c r="BJ297" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="BK297" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
       <c r="BL297" t="s">
-        <v>882</v>
+        <v>822</v>
       </c>
       <c r="BM297" t="s">
-        <v>905</v>
+        <v>830</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -61636,10 +61411,10 @@
         <v>791</v>
       </c>
       <c r="F298">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G298">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H298">
         <v>4.1</v>
@@ -61648,43 +61423,43 @@
         <v>4.3</v>
       </c>
       <c r="J298">
+        <v>3.85</v>
+      </c>
+      <c r="K298">
         <v>3.95</v>
       </c>
-      <c r="K298">
-        <v>4.1</v>
-      </c>
       <c r="L298">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M298">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="N298">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O298">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="P298">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q298">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R298">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="S298">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="T298">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="U298">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V298">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="W298">
         <v>21</v>
@@ -61702,13 +61477,13 @@
         <v>80</v>
       </c>
       <c r="AB298">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC298">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD298">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE298">
         <v>9.6</v>
@@ -61723,10 +61498,10 @@
         <v>34</v>
       </c>
       <c r="AI298">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ298">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK298">
         <v>14.5</v>
@@ -61735,19 +61510,19 @@
         <v>9.6</v>
       </c>
       <c r="AM298">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN298">
         <v>14.5</v>
       </c>
       <c r="AO298">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP298">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AQ298">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR298">
         <v>21</v>
@@ -61765,34 +61540,34 @@
         <v>25</v>
       </c>
       <c r="AW298">
+        <v>29</v>
+      </c>
+      <c r="AX298">
+        <v>60</v>
+      </c>
+      <c r="AY298">
+        <v>75</v>
+      </c>
+      <c r="AZ298">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA298">
+        <v>11</v>
+      </c>
+      <c r="BB298">
         <v>28</v>
       </c>
-      <c r="AX298">
-        <v>48</v>
-      </c>
-      <c r="AY298">
-        <v>70</v>
-      </c>
-      <c r="AZ298">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BA298">
-        <v>10.5</v>
-      </c>
-      <c r="BB298">
-        <v>27</v>
-      </c>
       <c r="BC298">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BD298">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BE298">
         <v>980</v>
       </c>
       <c r="BF298" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="BG298">
         <v>7533070</v>
@@ -61804,16 +61579,16 @@
         <v>58805</v>
       </c>
       <c r="BJ298" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="BK298" t="s">
-        <v>860</v>
+        <v>815</v>
       </c>
       <c r="BL298" t="s">
-        <v>883</v>
+        <v>823</v>
       </c>
       <c r="BM298" t="s">
-        <v>906</v>
+        <v>831</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -61833,37 +61608,37 @@
         <v>792</v>
       </c>
       <c r="F299">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G299">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H299">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I299">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J299">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K299">
         <v>4.9</v>
       </c>
       <c r="L299">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="M299">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="N299">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O299">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="P299">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q299">
         <v>1.97</v>
@@ -61872,37 +61647,37 @@
         <v>2.04</v>
       </c>
       <c r="S299">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T299">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U299">
+        <v>19.5</v>
+      </c>
+      <c r="V299">
         <v>21</v>
-      </c>
-      <c r="V299">
-        <v>1.63</v>
       </c>
       <c r="W299">
         <v>26</v>
       </c>
       <c r="X299">
-        <v>1.54</v>
+        <v>7.6</v>
       </c>
       <c r="Y299">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z299">
-        <v>1.58</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA299">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB299">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC299">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AD299">
         <v>9.4</v>
@@ -61914,82 +61689,82 @@
         <v>22</v>
       </c>
       <c r="AG299">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH299">
-        <v>1.55</v>
+        <v>7.8</v>
       </c>
       <c r="AI299">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ299">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK299">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AL299">
         <v>9.199999999999999</v>
       </c>
       <c r="AM299">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AN299">
-        <v>1.58</v>
+        <v>20</v>
       </c>
       <c r="AO299">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AP299">
-        <v>1.74</v>
+        <v>7.8</v>
       </c>
       <c r="AQ299">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AR299">
         <v>13</v>
       </c>
       <c r="AS299">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AT299">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AU299">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AV299">
-        <v>1.51</v>
+        <v>7</v>
       </c>
       <c r="AW299">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AX299">
-        <v>1.58</v>
+        <v>8</v>
       </c>
       <c r="AY299">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ299">
-        <v>1.32</v>
+        <v>4.7</v>
       </c>
       <c r="BA299">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BB299">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="BC299">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BD299">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="BE299">
         <v>1000</v>
       </c>
       <c r="BF299" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="BG299">
         <v>328916</v>
@@ -62001,16 +61776,16 @@
         <v>58805</v>
       </c>
       <c r="BJ299" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="BK299" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
       <c r="BL299" t="s">
-        <v>884</v>
+        <v>824</v>
       </c>
       <c r="BM299" t="s">
-        <v>907</v>
+        <v>832</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -62030,7 +61805,7 @@
         <v>793</v>
       </c>
       <c r="F300">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G300">
         <v>2.8</v>
@@ -62039,25 +61814,25 @@
         <v>2.68</v>
       </c>
       <c r="I300">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J300">
         <v>3.7</v>
       </c>
       <c r="K300">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L300">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="M300">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="N300">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="O300">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P300">
         <v>1.66</v>
@@ -62072,121 +61847,121 @@
         <v>2.52</v>
       </c>
       <c r="T300">
+        <v>15</v>
+      </c>
+      <c r="U300">
+        <v>17</v>
+      </c>
+      <c r="V300">
+        <v>12</v>
+      </c>
+      <c r="W300">
+        <v>13.5</v>
+      </c>
+      <c r="X300">
+        <v>17</v>
+      </c>
+      <c r="Y300">
+        <v>19</v>
+      </c>
+      <c r="Z300">
+        <v>34</v>
+      </c>
+      <c r="AA300">
+        <v>40</v>
+      </c>
+      <c r="AB300">
+        <v>12.5</v>
+      </c>
+      <c r="AC300">
         <v>14</v>
       </c>
-      <c r="U300">
-        <v>19</v>
-      </c>
-      <c r="V300">
-        <v>11</v>
-      </c>
-      <c r="W300">
-        <v>14.5</v>
-      </c>
-      <c r="X300">
-        <v>17.5</v>
-      </c>
-      <c r="Y300">
-        <v>21</v>
-      </c>
-      <c r="Z300">
-        <v>30</v>
-      </c>
-      <c r="AA300">
-        <v>44</v>
-      </c>
-      <c r="AB300">
-        <v>11</v>
-      </c>
-      <c r="AC300">
-        <v>15</v>
-      </c>
       <c r="AD300">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE300">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AF300">
         <v>11</v>
       </c>
       <c r="AG300">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH300">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI300">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ300">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AK300">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL300">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM300">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AN300">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO300">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AP300">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AQ300">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AR300">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AS300">
         <v>42</v>
       </c>
       <c r="AT300">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU300">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV300">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AW300">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AX300">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AY300">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ300">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA300">
         <v>20</v>
       </c>
       <c r="BB300">
-        <v>5.7</v>
+        <v>16.5</v>
       </c>
       <c r="BC300">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD300">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="BE300">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="BF300" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="BG300">
         <v>230914</v>
@@ -62198,16 +61973,16 @@
         <v>58805</v>
       </c>
       <c r="BJ300" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="BK300" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
       <c r="BL300" t="s">
-        <v>885</v>
+        <v>825</v>
       </c>
       <c r="BM300" t="s">
-        <v>908</v>
+        <v>833</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62227,25 +62002,25 @@
         <v>794</v>
       </c>
       <c r="F301">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="G301">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H301">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I301">
         <v>6.2</v>
       </c>
       <c r="J301">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K301">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L301">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="M301">
         <v>2.7</v>
@@ -62254,7 +62029,7 @@
         <v>1.59</v>
       </c>
       <c r="O301">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="P301">
         <v>1.68</v>
@@ -62263,10 +62038,10 @@
         <v>1.74</v>
       </c>
       <c r="R301">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S301">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T301">
         <v>15.5</v>
@@ -62281,13 +62056,13 @@
         <v>29</v>
       </c>
       <c r="X301">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y301">
         <v>55</v>
       </c>
       <c r="Z301">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AA301">
         <v>980</v>
@@ -62311,7 +62086,7 @@
         <v>25</v>
       </c>
       <c r="AH301">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AI301">
         <v>70</v>
@@ -62335,7 +62110,7 @@
         <v>23</v>
       </c>
       <c r="AP301">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AQ301">
         <v>70</v>
@@ -62344,13 +62119,13 @@
         <v>14.5</v>
       </c>
       <c r="AS301">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AT301">
         <v>13</v>
       </c>
       <c r="AU301">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV301">
         <v>19.5</v>
@@ -62359,31 +62134,31 @@
         <v>34</v>
       </c>
       <c r="AX301">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AY301">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AZ301">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BA301">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BB301">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BC301">
         <v>60</v>
       </c>
       <c r="BD301">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BE301">
         <v>980</v>
       </c>
       <c r="BF301" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="BG301">
         <v>328954</v>
@@ -62395,16 +62170,16 @@
         <v>58805</v>
       </c>
       <c r="BJ301" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="BK301" t="s">
-        <v>863</v>
+        <v>818</v>
       </c>
       <c r="BL301" t="s">
-        <v>886</v>
+        <v>826</v>
       </c>
       <c r="BM301" t="s">
-        <v>909</v>
+        <v>834</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -62424,31 +62199,31 @@
         <v>795</v>
       </c>
       <c r="F302">
+        <v>1.47</v>
+      </c>
+      <c r="G302">
         <v>1.48</v>
       </c>
-      <c r="G302">
-        <v>1.51</v>
-      </c>
       <c r="H302">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I302">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J302">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K302">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L302">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="M302">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="N302">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="O302">
         <v>1.54</v>
@@ -62457,40 +62232,40 @@
         <v>1.69</v>
       </c>
       <c r="Q302">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R302">
         <v>2.34</v>
       </c>
       <c r="S302">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T302">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U302">
         <v>28</v>
       </c>
       <c r="V302">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W302">
         <v>36</v>
       </c>
       <c r="X302">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y302">
         <v>70</v>
       </c>
       <c r="Z302">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AA302">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB302">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC302">
         <v>13</v>
@@ -62502,31 +62277,31 @@
         <v>12.5</v>
       </c>
       <c r="AF302">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG302">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH302">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AI302">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ302">
+        <v>10</v>
+      </c>
+      <c r="AK302">
+        <v>11</v>
+      </c>
+      <c r="AL302">
+        <v>9.4</v>
+      </c>
+      <c r="AM302">
         <v>9.800000000000001</v>
       </c>
-      <c r="AK302">
-        <v>11.5</v>
-      </c>
-      <c r="AL302">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM302">
-        <v>10.5</v>
-      </c>
       <c r="AN302">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO302">
         <v>20</v>
@@ -62541,34 +62316,34 @@
         <v>12.5</v>
       </c>
       <c r="AS302">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT302">
         <v>12.5</v>
       </c>
       <c r="AU302">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AV302">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW302">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX302">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AY302">
         <v>80</v>
       </c>
       <c r="AZ302">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BA302">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="BB302">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BC302">
         <v>70</v>
@@ -62580,7 +62355,7 @@
         <v>980</v>
       </c>
       <c r="BF302" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="BG302">
         <v>17268707</v>
@@ -62592,16 +62367,16 @@
         <v>58805</v>
       </c>
       <c r="BJ302" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="BK302" t="s">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="BL302" t="s">
-        <v>887</v>
+        <v>827</v>
       </c>
       <c r="BM302" t="s">
-        <v>910</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="801">
   <si>
     <t>League</t>
   </si>
@@ -2404,121 +2404,16 @@
     <t>Portland Timbers</t>
   </si>
   <si>
-    <t>33212346</t>
-  </si>
-  <si>
-    <t>33212401</t>
-  </si>
-  <si>
-    <t>33210869</t>
-  </si>
-  <si>
-    <t>33212394</t>
-  </si>
-  <si>
-    <t>33193084</t>
-  </si>
-  <si>
-    <t>33193138</t>
-  </si>
-  <si>
-    <t>33193089</t>
-  </si>
-  <si>
     <t>33210866</t>
   </si>
   <si>
-    <t>1.227943615</t>
-  </si>
-  <si>
-    <t>1.227943182</t>
-  </si>
-  <si>
-    <t>1.227920811</t>
-  </si>
-  <si>
-    <t>1.227943399</t>
-  </si>
-  <si>
-    <t>1.227621064</t>
-  </si>
-  <si>
-    <t>1.227620883</t>
-  </si>
-  <si>
-    <t>1.227620974</t>
-  </si>
-  <si>
     <t>1.227920940</t>
   </si>
   <si>
-    <t>1.227943625</t>
-  </si>
-  <si>
-    <t>1.227943192</t>
-  </si>
-  <si>
-    <t>1.227920821</t>
-  </si>
-  <si>
-    <t>1.227943409</t>
-  </si>
-  <si>
-    <t>1.227621109</t>
-  </si>
-  <si>
-    <t>1.227620928</t>
-  </si>
-  <si>
-    <t>1.227621019</t>
-  </si>
-  <si>
     <t>1.227920950</t>
   </si>
   <si>
-    <t>1.227943614</t>
-  </si>
-  <si>
-    <t>1.227943181</t>
-  </si>
-  <si>
-    <t>1.227920810</t>
-  </si>
-  <si>
-    <t>1.227943398</t>
-  </si>
-  <si>
-    <t>1.227621148</t>
-  </si>
-  <si>
-    <t>1.227620967</t>
-  </si>
-  <si>
-    <t>1.227621058</t>
-  </si>
-  <si>
     <t>1.227920939</t>
-  </si>
-  <si>
-    <t>1.227943624</t>
-  </si>
-  <si>
-    <t>1.227943191</t>
-  </si>
-  <si>
-    <t>1.227920820</t>
-  </si>
-  <si>
-    <t>1.227943408</t>
-  </si>
-  <si>
-    <t>1.227621073</t>
-  </si>
-  <si>
-    <t>1.227620892</t>
-  </si>
-  <si>
-    <t>1.227620983</t>
   </si>
   <si>
     <t>1.227920949</t>
@@ -60975,8 +60870,8 @@
       <c r="BE295">
         <v>980</v>
       </c>
-      <c r="BF295" t="s">
-        <v>796</v>
+      <c r="BF295">
+        <v>33212346</v>
       </c>
       <c r="BG295">
         <v>226469</v>
@@ -60987,17 +60882,17 @@
       <c r="BI295">
         <v>58805</v>
       </c>
-      <c r="BJ295" t="s">
-        <v>804</v>
-      </c>
-      <c r="BK295" t="s">
-        <v>812</v>
-      </c>
-      <c r="BL295" t="s">
-        <v>820</v>
-      </c>
-      <c r="BM295" t="s">
-        <v>828</v>
+      <c r="BJ295">
+        <v>1.227943615</v>
+      </c>
+      <c r="BK295">
+        <v>1.227943625</v>
+      </c>
+      <c r="BL295">
+        <v>1.227943614</v>
+      </c>
+      <c r="BM295">
+        <v>1.227943624</v>
       </c>
     </row>
     <row r="296" spans="1:65">
@@ -61172,8 +61067,8 @@
       <c r="BE296">
         <v>980</v>
       </c>
-      <c r="BF296" t="s">
-        <v>797</v>
+      <c r="BF296">
+        <v>33212401</v>
       </c>
       <c r="BG296">
         <v>17790476</v>
@@ -61184,17 +61079,17 @@
       <c r="BI296">
         <v>58805</v>
       </c>
-      <c r="BJ296" t="s">
-        <v>805</v>
-      </c>
-      <c r="BK296" t="s">
-        <v>813</v>
-      </c>
-      <c r="BL296" t="s">
-        <v>821</v>
-      </c>
-      <c r="BM296" t="s">
-        <v>829</v>
+      <c r="BJ296">
+        <v>1.227943182</v>
+      </c>
+      <c r="BK296">
+        <v>1.227943192</v>
+      </c>
+      <c r="BL296">
+        <v>1.227943181</v>
+      </c>
+      <c r="BM296">
+        <v>1.227943191</v>
       </c>
     </row>
     <row r="297" spans="1:65">
@@ -61369,8 +61264,8 @@
       <c r="BE297">
         <v>1000</v>
       </c>
-      <c r="BF297" t="s">
-        <v>798</v>
+      <c r="BF297">
+        <v>33210869</v>
       </c>
       <c r="BG297">
         <v>2937353</v>
@@ -61381,17 +61276,17 @@
       <c r="BI297">
         <v>58805</v>
       </c>
-      <c r="BJ297" t="s">
-        <v>806</v>
-      </c>
-      <c r="BK297" t="s">
-        <v>814</v>
-      </c>
-      <c r="BL297" t="s">
-        <v>822</v>
-      </c>
-      <c r="BM297" t="s">
-        <v>830</v>
+      <c r="BJ297">
+        <v>1.227920811</v>
+      </c>
+      <c r="BK297">
+        <v>1.227920821</v>
+      </c>
+      <c r="BL297">
+        <v>1.22792081</v>
+      </c>
+      <c r="BM297">
+        <v>1.22792082</v>
       </c>
     </row>
     <row r="298" spans="1:65">
@@ -61566,8 +61461,8 @@
       <c r="BE298">
         <v>980</v>
       </c>
-      <c r="BF298" t="s">
-        <v>799</v>
+      <c r="BF298">
+        <v>33212394</v>
       </c>
       <c r="BG298">
         <v>7533070</v>
@@ -61578,17 +61473,17 @@
       <c r="BI298">
         <v>58805</v>
       </c>
-      <c r="BJ298" t="s">
-        <v>807</v>
-      </c>
-      <c r="BK298" t="s">
-        <v>815</v>
-      </c>
-      <c r="BL298" t="s">
-        <v>823</v>
-      </c>
-      <c r="BM298" t="s">
-        <v>831</v>
+      <c r="BJ298">
+        <v>1.227943399</v>
+      </c>
+      <c r="BK298">
+        <v>1.227943409</v>
+      </c>
+      <c r="BL298">
+        <v>1.227943398</v>
+      </c>
+      <c r="BM298">
+        <v>1.227943408</v>
       </c>
     </row>
     <row r="299" spans="1:65">
@@ -61763,8 +61658,8 @@
       <c r="BE299">
         <v>1000</v>
       </c>
-      <c r="BF299" t="s">
-        <v>800</v>
+      <c r="BF299">
+        <v>33193084</v>
       </c>
       <c r="BG299">
         <v>328916</v>
@@ -61775,17 +61670,17 @@
       <c r="BI299">
         <v>58805</v>
       </c>
-      <c r="BJ299" t="s">
-        <v>808</v>
-      </c>
-      <c r="BK299" t="s">
-        <v>816</v>
-      </c>
-      <c r="BL299" t="s">
-        <v>824</v>
-      </c>
-      <c r="BM299" t="s">
-        <v>832</v>
+      <c r="BJ299">
+        <v>1.227621064</v>
+      </c>
+      <c r="BK299">
+        <v>1.227621109</v>
+      </c>
+      <c r="BL299">
+        <v>1.227621148</v>
+      </c>
+      <c r="BM299">
+        <v>1.227621073</v>
       </c>
     </row>
     <row r="300" spans="1:65">
@@ -61960,8 +61855,8 @@
       <c r="BE300">
         <v>590</v>
       </c>
-      <c r="BF300" t="s">
-        <v>801</v>
+      <c r="BF300">
+        <v>33193138</v>
       </c>
       <c r="BG300">
         <v>230914</v>
@@ -61972,17 +61867,17 @@
       <c r="BI300">
         <v>58805</v>
       </c>
-      <c r="BJ300" t="s">
-        <v>809</v>
-      </c>
-      <c r="BK300" t="s">
-        <v>817</v>
-      </c>
-      <c r="BL300" t="s">
-        <v>825</v>
-      </c>
-      <c r="BM300" t="s">
-        <v>833</v>
+      <c r="BJ300">
+        <v>1.227620883</v>
+      </c>
+      <c r="BK300">
+        <v>1.227620928</v>
+      </c>
+      <c r="BL300">
+        <v>1.227620967</v>
+      </c>
+      <c r="BM300">
+        <v>1.227620892</v>
       </c>
     </row>
     <row r="301" spans="1:65">
@@ -62157,8 +62052,8 @@
       <c r="BE301">
         <v>980</v>
       </c>
-      <c r="BF301" t="s">
-        <v>802</v>
+      <c r="BF301">
+        <v>33193089</v>
       </c>
       <c r="BG301">
         <v>328954</v>
@@ -62169,17 +62064,17 @@
       <c r="BI301">
         <v>58805</v>
       </c>
-      <c r="BJ301" t="s">
-        <v>810</v>
-      </c>
-      <c r="BK301" t="s">
-        <v>818</v>
-      </c>
-      <c r="BL301" t="s">
-        <v>826</v>
-      </c>
-      <c r="BM301" t="s">
-        <v>834</v>
+      <c r="BJ301">
+        <v>1.227620974</v>
+      </c>
+      <c r="BK301">
+        <v>1.227621019</v>
+      </c>
+      <c r="BL301">
+        <v>1.227621058</v>
+      </c>
+      <c r="BM301">
+        <v>1.227620983</v>
       </c>
     </row>
     <row r="302" spans="1:65">
@@ -62202,43 +62097,43 @@
         <v>1.47</v>
       </c>
       <c r="G302">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H302">
         <v>7.4</v>
       </c>
       <c r="I302">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J302">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K302">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L302">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="M302">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="N302">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="O302">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P302">
         <v>1.69</v>
       </c>
       <c r="Q302">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R302">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="S302">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T302">
         <v>25</v>
@@ -62247,10 +62142,10 @@
         <v>28</v>
       </c>
       <c r="V302">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W302">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X302">
         <v>60</v>
@@ -62271,7 +62166,7 @@
         <v>13</v>
       </c>
       <c r="AD302">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE302">
         <v>12.5</v>
@@ -62289,7 +62184,7 @@
         <v>85</v>
       </c>
       <c r="AJ302">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK302">
         <v>11</v>
@@ -62304,16 +62199,16 @@
         <v>18.5</v>
       </c>
       <c r="AO302">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP302">
         <v>60</v>
       </c>
       <c r="AQ302">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR302">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS302">
         <v>14</v>
@@ -62334,7 +62229,7 @@
         <v>65</v>
       </c>
       <c r="AY302">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ302">
         <v>4.7</v>
@@ -62343,19 +62238,19 @@
         <v>4.9</v>
       </c>
       <c r="BB302">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC302">
         <v>70</v>
       </c>
       <c r="BD302">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="BE302">
         <v>980</v>
       </c>
       <c r="BF302" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="BG302">
         <v>17268707</v>
@@ -62367,16 +62262,16 @@
         <v>58805</v>
       </c>
       <c r="BJ302" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="BK302" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="BL302" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="BM302" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="796">
   <si>
     <t>League</t>
   </si>
@@ -2402,21 +2402,6 @@
   </si>
   <si>
     <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>33210866</t>
-  </si>
-  <si>
-    <t>1.227920940</t>
-  </si>
-  <si>
-    <t>1.227920950</t>
-  </si>
-  <si>
-    <t>1.227920939</t>
-  </si>
-  <si>
-    <t>1.227920949</t>
   </si>
 </sst>
 </file>
@@ -62249,8 +62234,8 @@
       <c r="BE302">
         <v>980</v>
       </c>
-      <c r="BF302" t="s">
-        <v>796</v>
+      <c r="BF302">
+        <v>33210866</v>
       </c>
       <c r="BG302">
         <v>17268707</v>
@@ -62261,17 +62246,17 @@
       <c r="BI302">
         <v>58805</v>
       </c>
-      <c r="BJ302" t="s">
-        <v>797</v>
-      </c>
-      <c r="BK302" t="s">
-        <v>798</v>
-      </c>
-      <c r="BL302" t="s">
-        <v>799</v>
-      </c>
-      <c r="BM302" t="s">
-        <v>800</v>
+      <c r="BJ302">
+        <v>1.22792094</v>
+      </c>
+      <c r="BK302">
+        <v>1.22792095</v>
+      </c>
+      <c r="BL302">
+        <v>1.227920939</v>
+      </c>
+      <c r="BM302">
+        <v>1.227920949</v>
       </c>
     </row>
   </sheetData>
